--- a/src/defaultipa.xlsx
+++ b/src/defaultipa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\accel\ProjectHome\phonetic-problem-generator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B5326B-9035-4C59-9B11-4C6D41534206}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5133299A-86BE-4727-B72D-8C928863EC83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18120" xr2:uid="{A2B073AC-DFC3-D048-8692-BFCEF974FFF8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="105">
   <si>
     <t>p</t>
   </si>
@@ -99,15 +99,9 @@
     <t>pʰ</t>
   </si>
   <si>
-    <t>aspirated</t>
-  </si>
-  <si>
     <t>bʱ</t>
   </si>
   <si>
-    <t>breathy</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -183,15 +177,6 @@
     <t>dorsal</t>
   </si>
   <si>
-    <t>phonation</t>
-  </si>
-  <si>
-    <t>modal voiced</t>
-  </si>
-  <si>
-    <t>unaspirated voiceless</t>
-  </si>
-  <si>
     <t>vocal fold spread</t>
   </si>
   <si>
@@ -325,15 +310,6 @@
   </si>
   <si>
     <t>specific consonant POA</t>
-  </si>
-  <si>
-    <t>dummy1</t>
-  </si>
-  <si>
-    <t>dummy2</t>
-  </si>
-  <si>
-    <t>dummy3</t>
   </si>
   <si>
     <t>non_syllabic</t>
@@ -715,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580C24B1-92A6-954F-80C3-690B3863B6C1}">
-  <dimension ref="A2:AH33"/>
+  <dimension ref="A2:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -745,62 +721,61 @@
     <col min="20" max="20" width="7.5" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="G2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
         <v>5</v>
@@ -812,75 +787,63 @@
         <v>10</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s">
         <v>16</v>
       </c>
       <c r="T3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
         <v>6</v>
@@ -892,81 +855,69 @@
         <v>11</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s">
         <v>17</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W4" t="s">
         <v>54</v>
       </c>
-      <c r="X4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AB4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
         <v>7</v>
@@ -978,81 +929,69 @@
         <v>11</v>
       </c>
       <c r="P5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" t="s">
-        <v>47</v>
-      </c>
       <c r="R5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s">
         <v>17</v>
       </c>
       <c r="T5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
-      </c>
-      <c r="W5" t="s">
         <v>54</v>
       </c>
-      <c r="X5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AB5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
         <v>6</v>
@@ -1064,75 +1003,63 @@
         <v>11</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s">
         <v>17</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
-      </c>
-      <c r="W6" t="s">
-        <v>53</v>
-      </c>
-      <c r="X6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M7" t="s">
         <v>15</v>
@@ -1144,57 +1071,45 @@
         <v>22</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S7" t="s">
         <v>18</v>
       </c>
       <c r="T7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
-      </c>
-      <c r="W7" t="s">
-        <v>53</v>
-      </c>
-      <c r="X7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
@@ -1203,19 +1118,19 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
         <v>6</v>
@@ -1227,78 +1142,66 @@
         <v>11</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s">
         <v>17</v>
       </c>
       <c r="T8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
-      </c>
-      <c r="W8" t="s">
         <v>54</v>
       </c>
-      <c r="X8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AB8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s">
         <v>6</v>
@@ -1310,75 +1213,63 @@
         <v>11</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S10" t="s">
         <v>17</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
-      </c>
-      <c r="W10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="X10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M11" t="s">
         <v>6</v>
@@ -1390,81 +1281,69 @@
         <v>11</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S11" t="s">
         <v>17</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U11" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="V11" t="s">
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
         <v>59</v>
       </c>
-      <c r="W11" t="s">
-        <v>26</v>
-      </c>
-      <c r="X11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" t="s">
-        <v>64</v>
-      </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="N13" t="s">
         <v>14</v>
@@ -1473,54 +1352,42 @@
         <v>22</v>
       </c>
       <c r="P13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" t="s">
-        <v>47</v>
-      </c>
       <c r="R13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S13" t="s">
         <v>17</v>
       </c>
       <c r="T13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
-      </c>
-      <c r="W13" t="s">
-        <v>53</v>
-      </c>
-      <c r="X13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
         <v>1</v>
@@ -1529,22 +1396,22 @@
         <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" t="s">
         <v>39</v>
-      </c>
-      <c r="K15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" t="s">
-        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>14</v>
@@ -1553,75 +1420,63 @@
         <v>22</v>
       </c>
       <c r="P15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S15" t="s">
         <v>17</v>
       </c>
       <c r="T15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
         <v>58</v>
       </c>
-      <c r="V15" t="s">
+      <c r="I17" t="s">
         <v>59</v>
       </c>
-      <c r="W15" t="s">
-        <v>53</v>
-      </c>
-      <c r="X15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" t="s">
-        <v>64</v>
-      </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M17" t="s">
         <v>6</v>
@@ -1633,75 +1488,63 @@
         <v>11</v>
       </c>
       <c r="P17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S17" t="s">
         <v>17</v>
       </c>
       <c r="T17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="U17" t="s">
+        <v>53</v>
+      </c>
+      <c r="V17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
         <v>58</v>
       </c>
-      <c r="V17" t="s">
-        <v>59</v>
-      </c>
-      <c r="W17" t="s">
-        <v>54</v>
-      </c>
-      <c r="X17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" t="s">
-        <v>63</v>
-      </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" t="s">
         <v>7</v>
@@ -1713,75 +1556,63 @@
         <v>11</v>
       </c>
       <c r="P18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" t="s">
         <v>45</v>
       </c>
-      <c r="Q18" t="s">
-        <v>47</v>
-      </c>
       <c r="R18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S18" t="s">
         <v>17</v>
       </c>
       <c r="T18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V18" t="s">
-        <v>59</v>
-      </c>
-      <c r="W18" t="s">
         <v>54</v>
       </c>
-      <c r="X18" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M19" t="s">
         <v>7</v>
@@ -1793,75 +1624,63 @@
         <v>11</v>
       </c>
       <c r="P19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" t="s">
         <v>45</v>
       </c>
-      <c r="Q19" t="s">
-        <v>47</v>
-      </c>
       <c r="R19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S19" t="s">
         <v>17</v>
       </c>
       <c r="T19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" t="s">
         <v>59</v>
       </c>
-      <c r="W19" t="s">
-        <v>54</v>
-      </c>
-      <c r="X19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" t="s">
-        <v>64</v>
-      </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M20" t="s">
         <v>7</v>
@@ -1873,75 +1692,63 @@
         <v>11</v>
       </c>
       <c r="P20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" t="s">
         <v>45</v>
       </c>
-      <c r="Q20" t="s">
-        <v>47</v>
-      </c>
       <c r="R20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S20" t="s">
         <v>17</v>
       </c>
       <c r="T20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V20" t="s">
-        <v>59</v>
-      </c>
-      <c r="W20" t="s">
         <v>54</v>
       </c>
-      <c r="X20" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M22" t="s">
         <v>7</v>
@@ -1953,75 +1760,63 @@
         <v>11</v>
       </c>
       <c r="P22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q22" t="s">
         <v>45</v>
       </c>
-      <c r="Q22" t="s">
-        <v>47</v>
-      </c>
       <c r="R22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S22" t="s">
         <v>17</v>
       </c>
       <c r="T22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V22" t="s">
-        <v>59</v>
-      </c>
-      <c r="W22" t="s">
-        <v>24</v>
-      </c>
-      <c r="X22" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" t="s">
         <v>6</v>
@@ -2033,78 +1828,66 @@
         <v>11</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S23" t="s">
         <v>17</v>
       </c>
       <c r="T23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V23" t="s">
-        <v>90</v>
-      </c>
-      <c r="W23" t="s">
-        <v>54</v>
-      </c>
-      <c r="X23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N25" t="s">
         <v>14</v>
@@ -2113,78 +1896,66 @@
         <v>22</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S25" t="s">
         <v>17</v>
       </c>
       <c r="T25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V25" t="s">
-        <v>59</v>
-      </c>
-      <c r="W25" t="s">
-        <v>53</v>
-      </c>
-      <c r="X25" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N26" t="s">
         <v>14</v>
@@ -2193,78 +1964,66 @@
         <v>22</v>
       </c>
       <c r="P26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S26" t="s">
         <v>17</v>
       </c>
       <c r="T26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V26" t="s">
-        <v>59</v>
-      </c>
-      <c r="W26" t="s">
-        <v>53</v>
-      </c>
-      <c r="X26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N27" t="s">
         <v>14</v>
@@ -2273,78 +2032,66 @@
         <v>22</v>
       </c>
       <c r="P27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S27" t="s">
         <v>17</v>
       </c>
       <c r="T27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
-      </c>
-      <c r="W27" t="s">
-        <v>53</v>
-      </c>
-      <c r="X27" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N28" t="s">
         <v>14</v>
@@ -2353,78 +2100,66 @@
         <v>22</v>
       </c>
       <c r="P28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S28" t="s">
         <v>17</v>
       </c>
       <c r="T28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V28" t="s">
-        <v>59</v>
-      </c>
-      <c r="W28" t="s">
-        <v>53</v>
-      </c>
-      <c r="X28" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" t="s">
         <v>36</v>
       </c>
-      <c r="H29" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" t="s">
-        <v>38</v>
-      </c>
       <c r="K29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N29" t="s">
         <v>14</v>
@@ -2433,78 +2168,66 @@
         <v>22</v>
       </c>
       <c r="P29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S29" t="s">
         <v>17</v>
       </c>
       <c r="T29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V29" t="s">
-        <v>59</v>
-      </c>
-      <c r="W29" t="s">
-        <v>53</v>
-      </c>
-      <c r="X29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
         <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K30" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N30" t="s">
         <v>14</v>
@@ -2513,78 +2236,66 @@
         <v>22</v>
       </c>
       <c r="P30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S30" t="s">
         <v>17</v>
       </c>
       <c r="T30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V30" t="s">
-        <v>59</v>
-      </c>
-      <c r="W30" t="s">
-        <v>53</v>
-      </c>
-      <c r="X30" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
         <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N31" t="s">
         <v>14</v>
@@ -2593,75 +2304,63 @@
         <v>22</v>
       </c>
       <c r="P31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S31" t="s">
         <v>17</v>
       </c>
       <c r="T31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V31" t="s">
-        <v>59</v>
-      </c>
-      <c r="W31" t="s">
-        <v>53</v>
-      </c>
-      <c r="X31" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M33" t="s">
         <v>15</v>
@@ -2673,37 +2372,25 @@
         <v>22</v>
       </c>
       <c r="P33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S33" t="s">
         <v>18</v>
       </c>
       <c r="T33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U33" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V33" t="s">
-        <v>59</v>
-      </c>
-      <c r="W33" t="s">
         <v>54</v>
-      </c>
-      <c r="X33" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/defaultipa.xlsx
+++ b/src/defaultipa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\accel\ProjectHome\phonetic-problem-generator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5133299A-86BE-4727-B72D-8C928863EC83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B75B5EE-3CE2-4984-A2AE-5644DCF53109}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18120" xr2:uid="{A2B073AC-DFC3-D048-8692-BFCEF974FFF8}"/>
   </bookViews>
@@ -312,9 +312,6 @@
     <t>specific consonant POA</t>
   </si>
   <si>
-    <t>non_syllabic</t>
-  </si>
-  <si>
     <t>bilabial _&gt; labial</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>middle</t>
+  </si>
+  <si>
+    <t>non syllabic</t>
   </si>
 </sst>
 </file>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580C24B1-92A6-954F-80C3-690B3863B6C1}">
   <dimension ref="A2:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -742,7 +742,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -876,10 +876,10 @@
         <v>54</v>
       </c>
       <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD4" t="s">
         <v>96</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.45">
@@ -887,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -950,10 +950,10 @@
         <v>54</v>
       </c>
       <c r="AB5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD5" t="s">
         <v>98</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.45">
@@ -961,7 +961,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1029,7 +1029,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1092,7 +1092,7 @@
         <v>54</v>
       </c>
       <c r="AB7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.45">
@@ -1100,7 +1100,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1163,7 +1163,7 @@
         <v>54</v>
       </c>
       <c r="AB8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.45">
@@ -1171,7 +1171,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1239,7 +1239,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1302,7 +1302,7 @@
         <v>54</v>
       </c>
       <c r="AB11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.45">
@@ -1310,7 +1310,7 @@
         <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
@@ -1378,7 +1378,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1446,7 +1446,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
         <v>57</v>
@@ -1514,7 +1514,7 @@
         <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
@@ -1582,7 +1582,7 @@
         <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
         <v>57</v>
@@ -1650,7 +1650,7 @@
         <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
@@ -1718,7 +1718,7 @@
         <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
         <v>48</v>
@@ -1786,7 +1786,7 @@
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
@@ -2221,7 +2221,7 @@
         <v>37</v>
       </c>
       <c r="K30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L30" t="s">
         <v>80</v>
@@ -2330,7 +2330,7 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>

--- a/src/defaultipa.xlsx
+++ b/src/defaultipa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\accel\ProjectHome\phonetic-problem-generator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649B71FD-4963-49EC-9655-D0E37180B921}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10F8ECE-0D69-4B9A-A317-C4FA8446397E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18120" xr2:uid="{A2B073AC-DFC3-D048-8692-BFCEF974FFF8}"/>
   </bookViews>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580C24B1-92A6-954F-80C3-690B3863B6C1}">
   <dimension ref="A1:X176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -4803,7 +4803,7 @@
         <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s">
         <v>47</v>
@@ -4874,7 +4874,7 @@
         <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s">
         <v>47</v>

--- a/src/defaultipa.xlsx
+++ b/src/defaultipa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\accel\ProjectHome\phonetic-problem-generator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10F8ECE-0D69-4B9A-A317-C4FA8446397E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38780486-6B50-4A90-ABB9-D6900D962139}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18120" xr2:uid="{A2B073AC-DFC3-D048-8692-BFCEF974FFF8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="239">
   <si>
     <t>p</t>
   </si>
@@ -261,9 +261,6 @@
     <t>specific C POA</t>
   </si>
   <si>
-    <t>syllabic</t>
-  </si>
-  <si>
     <t>tenseness</t>
   </si>
   <si>
@@ -738,13 +735,13 @@
     <t>END</t>
   </si>
   <si>
-    <t>non syllabic</t>
-  </si>
-  <si>
     <t>labial velar</t>
   </si>
   <si>
     <t>labial palatal</t>
+  </si>
+  <si>
+    <t>consonant</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580C24B1-92A6-954F-80C3-690B3863B6C1}">
   <dimension ref="A1:X176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -1147,7 +1144,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -1180,7 +1177,7 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
         <v>5</v>
@@ -1204,7 +1201,7 @@
         <v>16</v>
       </c>
       <c r="T2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U2" t="s">
         <v>49</v>
@@ -1213,7 +1210,7 @@
         <v>50</v>
       </c>
       <c r="X2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -1221,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1269,7 +1266,7 @@
         <v>45</v>
       </c>
       <c r="R3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S3" t="s">
         <v>17</v>
@@ -1284,7 +1281,7 @@
         <v>53</v>
       </c>
       <c r="X3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
@@ -1292,7 +1289,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1340,7 +1337,7 @@
         <v>45</v>
       </c>
       <c r="R4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S4" t="s">
         <v>17</v>
@@ -1355,15 +1352,15 @@
         <v>53</v>
       </c>
       <c r="X4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1411,13 +1408,13 @@
         <v>44</v>
       </c>
       <c r="R5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S5" t="s">
         <v>17</v>
       </c>
       <c r="T5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U5" t="s">
         <v>52</v>
@@ -1426,15 +1423,15 @@
         <v>53</v>
       </c>
       <c r="X5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1482,13 +1479,13 @@
         <v>44</v>
       </c>
       <c r="R6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S6" t="s">
         <v>17</v>
       </c>
       <c r="T6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U6" t="s">
         <v>52</v>
@@ -1497,7 +1494,7 @@
         <v>53</v>
       </c>
       <c r="X6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -1505,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1553,13 +1550,13 @@
         <v>44</v>
       </c>
       <c r="R7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S7" t="s">
         <v>17</v>
       </c>
       <c r="T7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U7" t="s">
         <v>52</v>
@@ -1568,15 +1565,15 @@
         <v>53</v>
       </c>
       <c r="X7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1624,13 +1621,13 @@
         <v>44</v>
       </c>
       <c r="R8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S8" t="s">
         <v>17</v>
       </c>
       <c r="T8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U8" t="s">
         <v>52</v>
@@ -1639,7 +1636,7 @@
         <v>53</v>
       </c>
       <c r="X8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -1647,7 +1644,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -1695,7 +1692,7 @@
         <v>45</v>
       </c>
       <c r="R9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S9" t="s">
         <v>18</v>
@@ -1710,15 +1707,15 @@
         <v>53</v>
       </c>
       <c r="X9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1766,7 +1763,7 @@
         <v>45</v>
       </c>
       <c r="R10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S10" t="s">
         <v>18</v>
@@ -1781,12 +1778,12 @@
         <v>53</v>
       </c>
       <c r="X10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
@@ -1794,7 +1791,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1842,7 +1839,7 @@
         <v>45</v>
       </c>
       <c r="R12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S12" t="s">
         <v>17</v>
@@ -1857,15 +1854,15 @@
         <v>53</v>
       </c>
       <c r="X12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1913,7 +1910,7 @@
         <v>45</v>
       </c>
       <c r="R13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S13" t="s">
         <v>17</v>
@@ -1928,15 +1925,15 @@
         <v>53</v>
       </c>
       <c r="X13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1984,13 +1981,13 @@
         <v>44</v>
       </c>
       <c r="R14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S14" t="s">
         <v>17</v>
       </c>
       <c r="T14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" t="s">
         <v>52</v>
@@ -1999,15 +1996,15 @@
         <v>53</v>
       </c>
       <c r="X14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -2055,13 +2052,13 @@
         <v>44</v>
       </c>
       <c r="R15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S15" t="s">
         <v>17</v>
       </c>
       <c r="T15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U15" t="s">
         <v>52</v>
@@ -2070,15 +2067,15 @@
         <v>53</v>
       </c>
       <c r="X15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -2126,13 +2123,13 @@
         <v>44</v>
       </c>
       <c r="R16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S16" t="s">
         <v>17</v>
       </c>
       <c r="T16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U16" t="s">
         <v>52</v>
@@ -2141,15 +2138,15 @@
         <v>53</v>
       </c>
       <c r="X16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2197,13 +2194,13 @@
         <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S17" t="s">
         <v>17</v>
       </c>
       <c r="T17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U17" t="s">
         <v>52</v>
@@ -2212,15 +2209,15 @@
         <v>53</v>
       </c>
       <c r="X17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -2268,7 +2265,7 @@
         <v>45</v>
       </c>
       <c r="R18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S18" t="s">
         <v>18</v>
@@ -2283,15 +2280,15 @@
         <v>53</v>
       </c>
       <c r="X18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -2339,7 +2336,7 @@
         <v>45</v>
       </c>
       <c r="R19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S19" t="s">
         <v>18</v>
@@ -2354,20 +2351,20 @@
         <v>53</v>
       </c>
       <c r="X19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -2394,7 +2391,7 @@
         <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
         <v>47</v>
@@ -2415,7 +2412,7 @@
         <v>45</v>
       </c>
       <c r="R21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S21" t="s">
         <v>17</v>
@@ -2430,15 +2427,15 @@
         <v>53</v>
       </c>
       <c r="X21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -2465,7 +2462,7 @@
         <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s">
         <v>47</v>
@@ -2486,7 +2483,7 @@
         <v>45</v>
       </c>
       <c r="R22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S22" t="s">
         <v>17</v>
@@ -2501,15 +2498,15 @@
         <v>53</v>
       </c>
       <c r="X22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -2536,7 +2533,7 @@
         <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s">
         <v>47</v>
@@ -2557,13 +2554,13 @@
         <v>44</v>
       </c>
       <c r="R23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S23" t="s">
         <v>17</v>
       </c>
       <c r="T23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U23" t="s">
         <v>52</v>
@@ -2572,15 +2569,15 @@
         <v>53</v>
       </c>
       <c r="X23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -2607,7 +2604,7 @@
         <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L24" t="s">
         <v>47</v>
@@ -2628,13 +2625,13 @@
         <v>44</v>
       </c>
       <c r="R24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S24" t="s">
         <v>17</v>
       </c>
       <c r="T24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U24" t="s">
         <v>52</v>
@@ -2643,15 +2640,15 @@
         <v>53</v>
       </c>
       <c r="X24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -2678,7 +2675,7 @@
         <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s">
         <v>47</v>
@@ -2699,13 +2696,13 @@
         <v>44</v>
       </c>
       <c r="R25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S25" t="s">
         <v>17</v>
       </c>
       <c r="T25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U25" t="s">
         <v>52</v>
@@ -2714,15 +2711,15 @@
         <v>53</v>
       </c>
       <c r="X25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -2749,7 +2746,7 @@
         <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s">
         <v>47</v>
@@ -2770,13 +2767,13 @@
         <v>44</v>
       </c>
       <c r="R26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S26" t="s">
         <v>17</v>
       </c>
       <c r="T26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U26" t="s">
         <v>52</v>
@@ -2785,15 +2782,15 @@
         <v>53</v>
       </c>
       <c r="X26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -2820,7 +2817,7 @@
         <v>34</v>
       </c>
       <c r="K27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L27" t="s">
         <v>47</v>
@@ -2841,7 +2838,7 @@
         <v>45</v>
       </c>
       <c r="R27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S27" t="s">
         <v>18</v>
@@ -2856,15 +2853,15 @@
         <v>53</v>
       </c>
       <c r="X27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2891,7 +2888,7 @@
         <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s">
         <v>47</v>
@@ -2912,7 +2909,7 @@
         <v>45</v>
       </c>
       <c r="R28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S28" t="s">
         <v>18</v>
@@ -2927,20 +2924,20 @@
         <v>53</v>
       </c>
       <c r="X28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C30" t="s">
         <v>56</v>
@@ -2988,7 +2985,7 @@
         <v>45</v>
       </c>
       <c r="R30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S30" t="s">
         <v>17</v>
@@ -3003,15 +3000,15 @@
         <v>53</v>
       </c>
       <c r="X30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C31" t="s">
         <v>56</v>
@@ -3059,7 +3056,7 @@
         <v>45</v>
       </c>
       <c r="R31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S31" t="s">
         <v>17</v>
@@ -3074,7 +3071,7 @@
         <v>53</v>
       </c>
       <c r="X31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.45">
@@ -3082,7 +3079,7 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C32" t="s">
         <v>56</v>
@@ -3130,7 +3127,7 @@
         <v>45</v>
       </c>
       <c r="R32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S32" t="s">
         <v>17</v>
@@ -3145,15 +3142,15 @@
         <v>53</v>
       </c>
       <c r="X32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C33" t="s">
         <v>56</v>
@@ -3201,7 +3198,7 @@
         <v>45</v>
       </c>
       <c r="R33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S33" t="s">
         <v>17</v>
@@ -3216,15 +3213,15 @@
         <v>53</v>
       </c>
       <c r="X33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
@@ -3272,7 +3269,7 @@
         <v>45</v>
       </c>
       <c r="R34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S34" t="s">
         <v>17</v>
@@ -3287,15 +3284,15 @@
         <v>53</v>
       </c>
       <c r="X34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
@@ -3343,7 +3340,7 @@
         <v>45</v>
       </c>
       <c r="R35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S35" t="s">
         <v>17</v>
@@ -3358,15 +3355,15 @@
         <v>53</v>
       </c>
       <c r="X35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C36" t="s">
         <v>56</v>
@@ -3414,7 +3411,7 @@
         <v>45</v>
       </c>
       <c r="R36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" t="s">
         <v>17</v>
@@ -3429,15 +3426,15 @@
         <v>53</v>
       </c>
       <c r="X36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
@@ -3485,7 +3482,7 @@
         <v>45</v>
       </c>
       <c r="R37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S37" t="s">
         <v>17</v>
@@ -3500,7 +3497,7 @@
         <v>53</v>
       </c>
       <c r="X37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.45">
@@ -3508,7 +3505,7 @@
         <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
@@ -3556,13 +3553,13 @@
         <v>44</v>
       </c>
       <c r="R38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S38" t="s">
         <v>17</v>
       </c>
       <c r="T38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U38" t="s">
         <v>52</v>
@@ -3571,15 +3568,15 @@
         <v>53</v>
       </c>
       <c r="X38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C39" t="s">
         <v>56</v>
@@ -3627,13 +3624,13 @@
         <v>44</v>
       </c>
       <c r="R39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S39" t="s">
         <v>17</v>
       </c>
       <c r="T39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" t="s">
         <v>52</v>
@@ -3642,15 +3639,15 @@
         <v>53</v>
       </c>
       <c r="X39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C40" t="s">
         <v>56</v>
@@ -3698,13 +3695,13 @@
         <v>44</v>
       </c>
       <c r="R40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S40" t="s">
         <v>17</v>
       </c>
       <c r="T40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U40" t="s">
         <v>52</v>
@@ -3713,15 +3710,15 @@
         <v>53</v>
       </c>
       <c r="X40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
@@ -3769,13 +3766,13 @@
         <v>44</v>
       </c>
       <c r="R41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S41" t="s">
         <v>17</v>
       </c>
       <c r="T41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U41" t="s">
         <v>52</v>
@@ -3784,7 +3781,7 @@
         <v>53</v>
       </c>
       <c r="X41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.45">
@@ -3792,7 +3789,7 @@
         <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C42" t="s">
         <v>56</v>
@@ -3840,13 +3837,13 @@
         <v>44</v>
       </c>
       <c r="R42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S42" t="s">
         <v>17</v>
       </c>
       <c r="T42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U42" t="s">
         <v>52</v>
@@ -3855,15 +3852,15 @@
         <v>53</v>
       </c>
       <c r="X42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
@@ -3911,13 +3908,13 @@
         <v>44</v>
       </c>
       <c r="R43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S43" t="s">
         <v>17</v>
       </c>
       <c r="T43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U43" t="s">
         <v>52</v>
@@ -3926,7 +3923,7 @@
         <v>53</v>
       </c>
       <c r="X43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.45">
@@ -3934,7 +3931,7 @@
         <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
@@ -3982,13 +3979,13 @@
         <v>44</v>
       </c>
       <c r="R44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S44" t="s">
         <v>17</v>
       </c>
       <c r="T44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U44" t="s">
         <v>52</v>
@@ -3997,15 +3994,15 @@
         <v>53</v>
       </c>
       <c r="X44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C45" t="s">
         <v>56</v>
@@ -4053,13 +4050,13 @@
         <v>44</v>
       </c>
       <c r="R45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S45" t="s">
         <v>17</v>
       </c>
       <c r="T45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U45" t="s">
         <v>52</v>
@@ -4068,15 +4065,15 @@
         <v>53</v>
       </c>
       <c r="X45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
@@ -4124,7 +4121,7 @@
         <v>45</v>
       </c>
       <c r="R46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S46" t="s">
         <v>18</v>
@@ -4139,15 +4136,15 @@
         <v>53</v>
       </c>
       <c r="X46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C47" t="s">
         <v>56</v>
@@ -4195,7 +4192,7 @@
         <v>45</v>
       </c>
       <c r="R47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S47" t="s">
         <v>18</v>
@@ -4210,15 +4207,15 @@
         <v>53</v>
       </c>
       <c r="X47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C48" t="s">
         <v>56</v>
@@ -4266,7 +4263,7 @@
         <v>45</v>
       </c>
       <c r="R48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S48" t="s">
         <v>18</v>
@@ -4281,15 +4278,15 @@
         <v>53</v>
       </c>
       <c r="X48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -4337,7 +4334,7 @@
         <v>45</v>
       </c>
       <c r="R49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S49" t="s">
         <v>18</v>
@@ -4352,15 +4349,15 @@
         <v>53</v>
       </c>
       <c r="X49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C50" t="s">
         <v>56</v>
@@ -4408,7 +4405,7 @@
         <v>45</v>
       </c>
       <c r="R50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S50" t="s">
         <v>18</v>
@@ -4423,15 +4420,15 @@
         <v>53</v>
       </c>
       <c r="X50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C51" t="s">
         <v>56</v>
@@ -4479,7 +4476,7 @@
         <v>45</v>
       </c>
       <c r="R51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S51" t="s">
         <v>18</v>
@@ -4494,15 +4491,15 @@
         <v>53</v>
       </c>
       <c r="X51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C52" t="s">
         <v>56</v>
@@ -4550,7 +4547,7 @@
         <v>45</v>
       </c>
       <c r="R52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S52" t="s">
         <v>18</v>
@@ -4565,15 +4562,15 @@
         <v>53</v>
       </c>
       <c r="X52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C53" t="s">
         <v>56</v>
@@ -4621,7 +4618,7 @@
         <v>45</v>
       </c>
       <c r="R53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S53" t="s">
         <v>18</v>
@@ -4636,20 +4633,20 @@
         <v>53</v>
       </c>
       <c r="X53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
@@ -4682,7 +4679,7 @@
         <v>47</v>
       </c>
       <c r="M55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N55" t="s">
         <v>9</v>
@@ -4697,13 +4694,13 @@
         <v>45</v>
       </c>
       <c r="R55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S55" t="s">
         <v>17</v>
       </c>
       <c r="T55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U55" t="s">
         <v>52</v>
@@ -4712,15 +4709,15 @@
         <v>53</v>
       </c>
       <c r="X55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C56" t="s">
         <v>56</v>
@@ -4753,7 +4750,7 @@
         <v>47</v>
       </c>
       <c r="M56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N56" t="s">
         <v>14</v>
@@ -4768,13 +4765,13 @@
         <v>45</v>
       </c>
       <c r="R56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S56" t="s">
         <v>17</v>
       </c>
       <c r="T56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U56" t="s">
         <v>52</v>
@@ -4783,15 +4780,15 @@
         <v>53</v>
       </c>
       <c r="X56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C57" t="s">
         <v>56</v>
@@ -4824,7 +4821,7 @@
         <v>47</v>
       </c>
       <c r="M57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N57" t="s">
         <v>9</v>
@@ -4839,13 +4836,13 @@
         <v>45</v>
       </c>
       <c r="R57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S57" t="s">
         <v>17</v>
       </c>
       <c r="T57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U57" t="s">
         <v>52</v>
@@ -4854,15 +4851,15 @@
         <v>53</v>
       </c>
       <c r="X57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
@@ -4895,7 +4892,7 @@
         <v>47</v>
       </c>
       <c r="M58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N58" t="s">
         <v>14</v>
@@ -4910,13 +4907,13 @@
         <v>45</v>
       </c>
       <c r="R58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S58" t="s">
         <v>17</v>
       </c>
       <c r="T58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U58" t="s">
         <v>52</v>
@@ -4925,15 +4922,15 @@
         <v>53</v>
       </c>
       <c r="X58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C59" t="s">
         <v>56</v>
@@ -4966,7 +4963,7 @@
         <v>47</v>
       </c>
       <c r="M59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N59" t="s">
         <v>9</v>
@@ -4981,13 +4978,13 @@
         <v>45</v>
       </c>
       <c r="R59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S59" t="s">
         <v>17</v>
       </c>
       <c r="T59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U59" t="s">
         <v>52</v>
@@ -4996,15 +4993,15 @@
         <v>53</v>
       </c>
       <c r="X59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C60" t="s">
         <v>56</v>
@@ -5037,7 +5034,7 @@
         <v>47</v>
       </c>
       <c r="M60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N60" t="s">
         <v>14</v>
@@ -5052,13 +5049,13 @@
         <v>45</v>
       </c>
       <c r="R60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S60" t="s">
         <v>17</v>
       </c>
       <c r="T60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U60" t="s">
         <v>52</v>
@@ -5067,20 +5064,20 @@
         <v>53</v>
       </c>
       <c r="X60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C62" t="s">
         <v>48</v>
@@ -5092,7 +5089,7 @@
         <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G62" t="s">
         <v>47</v>
@@ -5128,7 +5125,7 @@
         <v>45</v>
       </c>
       <c r="R62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S62" t="s">
         <v>17</v>
@@ -5143,15 +5140,15 @@
         <v>53</v>
       </c>
       <c r="X62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C63" t="s">
         <v>48</v>
@@ -5163,7 +5160,7 @@
         <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G63" t="s">
         <v>47</v>
@@ -5199,7 +5196,7 @@
         <v>45</v>
       </c>
       <c r="R63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S63" t="s">
         <v>17</v>
@@ -5214,15 +5211,15 @@
         <v>53</v>
       </c>
       <c r="X63" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C64" t="s">
         <v>48</v>
@@ -5234,7 +5231,7 @@
         <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G64" t="s">
         <v>47</v>
@@ -5270,13 +5267,13 @@
         <v>44</v>
       </c>
       <c r="R64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S64" t="s">
         <v>17</v>
       </c>
       <c r="T64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U64" t="s">
         <v>52</v>
@@ -5285,15 +5282,15 @@
         <v>53</v>
       </c>
       <c r="X64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C65" t="s">
         <v>48</v>
@@ -5305,7 +5302,7 @@
         <v>47</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G65" t="s">
         <v>47</v>
@@ -5341,13 +5338,13 @@
         <v>44</v>
       </c>
       <c r="R65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S65" t="s">
         <v>17</v>
       </c>
       <c r="T65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U65" t="s">
         <v>52</v>
@@ -5356,15 +5353,15 @@
         <v>53</v>
       </c>
       <c r="X65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C66" t="s">
         <v>48</v>
@@ -5376,7 +5373,7 @@
         <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G66" t="s">
         <v>47</v>
@@ -5412,7 +5409,7 @@
         <v>45</v>
       </c>
       <c r="R66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S66" t="s">
         <v>18</v>
@@ -5427,15 +5424,15 @@
         <v>53</v>
       </c>
       <c r="X66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C67" t="s">
         <v>48</v>
@@ -5447,7 +5444,7 @@
         <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G67" t="s">
         <v>47</v>
@@ -5483,7 +5480,7 @@
         <v>45</v>
       </c>
       <c r="R67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S67" t="s">
         <v>18</v>
@@ -5498,20 +5495,20 @@
         <v>53</v>
       </c>
       <c r="X67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C69" t="s">
         <v>48</v>
@@ -5523,7 +5520,7 @@
         <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G69" t="s">
         <v>47</v>
@@ -5559,7 +5556,7 @@
         <v>45</v>
       </c>
       <c r="R69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S69" t="s">
         <v>17</v>
@@ -5574,15 +5571,15 @@
         <v>53</v>
       </c>
       <c r="X69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C70" t="s">
         <v>48</v>
@@ -5594,7 +5591,7 @@
         <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G70" t="s">
         <v>47</v>
@@ -5630,7 +5627,7 @@
         <v>45</v>
       </c>
       <c r="R70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S70" t="s">
         <v>17</v>
@@ -5645,15 +5642,15 @@
         <v>53</v>
       </c>
       <c r="X70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C71" t="s">
         <v>48</v>
@@ -5665,7 +5662,7 @@
         <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G71" t="s">
         <v>47</v>
@@ -5701,13 +5698,13 @@
         <v>44</v>
       </c>
       <c r="R71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S71" t="s">
         <v>17</v>
       </c>
       <c r="T71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U71" t="s">
         <v>52</v>
@@ -5716,15 +5713,15 @@
         <v>53</v>
       </c>
       <c r="X71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C72" t="s">
         <v>48</v>
@@ -5736,7 +5733,7 @@
         <v>47</v>
       </c>
       <c r="F72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G72" t="s">
         <v>47</v>
@@ -5772,13 +5769,13 @@
         <v>44</v>
       </c>
       <c r="R72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S72" t="s">
         <v>17</v>
       </c>
       <c r="T72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U72" t="s">
         <v>52</v>
@@ -5787,15 +5784,15 @@
         <v>53</v>
       </c>
       <c r="X72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C73" t="s">
         <v>48</v>
@@ -5807,7 +5804,7 @@
         <v>47</v>
       </c>
       <c r="F73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G73" t="s">
         <v>47</v>
@@ -5843,7 +5840,7 @@
         <v>45</v>
       </c>
       <c r="R73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S73" t="s">
         <v>18</v>
@@ -5858,15 +5855,15 @@
         <v>53</v>
       </c>
       <c r="X73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C74" t="s">
         <v>48</v>
@@ -5878,7 +5875,7 @@
         <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G74" t="s">
         <v>47</v>
@@ -5914,7 +5911,7 @@
         <v>45</v>
       </c>
       <c r="R74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" t="s">
         <v>18</v>
@@ -5929,20 +5926,20 @@
         <v>53</v>
       </c>
       <c r="X74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C76" t="s">
         <v>48</v>
@@ -5954,7 +5951,7 @@
         <v>47</v>
       </c>
       <c r="F76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G76" t="s">
         <v>21</v>
@@ -5990,7 +5987,7 @@
         <v>45</v>
       </c>
       <c r="R76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S76" t="s">
         <v>17</v>
@@ -6005,15 +6002,15 @@
         <v>53</v>
       </c>
       <c r="X76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C77" t="s">
         <v>48</v>
@@ -6025,7 +6022,7 @@
         <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G77" t="s">
         <v>21</v>
@@ -6061,7 +6058,7 @@
         <v>45</v>
       </c>
       <c r="R77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S77" t="s">
         <v>17</v>
@@ -6076,15 +6073,15 @@
         <v>53</v>
       </c>
       <c r="X77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C78" t="s">
         <v>48</v>
@@ -6096,7 +6093,7 @@
         <v>47</v>
       </c>
       <c r="F78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G78" t="s">
         <v>21</v>
@@ -6132,13 +6129,13 @@
         <v>44</v>
       </c>
       <c r="R78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S78" t="s">
         <v>17</v>
       </c>
       <c r="T78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U78" t="s">
         <v>52</v>
@@ -6147,15 +6144,15 @@
         <v>53</v>
       </c>
       <c r="X78" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C79" t="s">
         <v>48</v>
@@ -6167,7 +6164,7 @@
         <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G79" t="s">
         <v>21</v>
@@ -6203,13 +6200,13 @@
         <v>44</v>
       </c>
       <c r="R79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S79" t="s">
         <v>17</v>
       </c>
       <c r="T79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" t="s">
         <v>52</v>
@@ -6218,15 +6215,15 @@
         <v>53</v>
       </c>
       <c r="X79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C80" t="s">
         <v>48</v>
@@ -6238,7 +6235,7 @@
         <v>47</v>
       </c>
       <c r="F80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G80" t="s">
         <v>21</v>
@@ -6274,7 +6271,7 @@
         <v>45</v>
       </c>
       <c r="R80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S80" t="s">
         <v>18</v>
@@ -6289,15 +6286,15 @@
         <v>53</v>
       </c>
       <c r="X80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C81" t="s">
         <v>48</v>
@@ -6309,7 +6306,7 @@
         <v>47</v>
       </c>
       <c r="F81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G81" t="s">
         <v>21</v>
@@ -6345,7 +6342,7 @@
         <v>45</v>
       </c>
       <c r="R81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S81" t="s">
         <v>18</v>
@@ -6360,20 +6357,20 @@
         <v>53</v>
       </c>
       <c r="X81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X82" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C83" t="s">
         <v>48</v>
@@ -6385,7 +6382,7 @@
         <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G83" t="s">
         <v>47</v>
@@ -6421,7 +6418,7 @@
         <v>45</v>
       </c>
       <c r="R83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S83" t="s">
         <v>17</v>
@@ -6436,15 +6433,15 @@
         <v>53</v>
       </c>
       <c r="X83" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C84" t="s">
         <v>48</v>
@@ -6456,7 +6453,7 @@
         <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G84" t="s">
         <v>47</v>
@@ -6492,7 +6489,7 @@
         <v>45</v>
       </c>
       <c r="R84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S84" t="s">
         <v>17</v>
@@ -6507,15 +6504,15 @@
         <v>53</v>
       </c>
       <c r="X84" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C85" t="s">
         <v>48</v>
@@ -6527,7 +6524,7 @@
         <v>47</v>
       </c>
       <c r="F85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G85" t="s">
         <v>47</v>
@@ -6563,13 +6560,13 @@
         <v>44</v>
       </c>
       <c r="R85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S85" t="s">
         <v>17</v>
       </c>
       <c r="T85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U85" t="s">
         <v>52</v>
@@ -6578,15 +6575,15 @@
         <v>53</v>
       </c>
       <c r="X85" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C86" t="s">
         <v>48</v>
@@ -6598,7 +6595,7 @@
         <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G86" t="s">
         <v>47</v>
@@ -6634,13 +6631,13 @@
         <v>44</v>
       </c>
       <c r="R86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S86" t="s">
         <v>17</v>
       </c>
       <c r="T86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U86" t="s">
         <v>52</v>
@@ -6649,15 +6646,15 @@
         <v>53</v>
       </c>
       <c r="X86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C87" t="s">
         <v>48</v>
@@ -6669,7 +6666,7 @@
         <v>47</v>
       </c>
       <c r="F87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G87" t="s">
         <v>47</v>
@@ -6705,7 +6702,7 @@
         <v>45</v>
       </c>
       <c r="R87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S87" t="s">
         <v>18</v>
@@ -6720,15 +6717,15 @@
         <v>53</v>
       </c>
       <c r="X87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B88" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C88" t="s">
         <v>48</v>
@@ -6740,7 +6737,7 @@
         <v>47</v>
       </c>
       <c r="F88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G88" t="s">
         <v>47</v>
@@ -6776,7 +6773,7 @@
         <v>45</v>
       </c>
       <c r="R88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S88" t="s">
         <v>18</v>
@@ -6791,12 +6788,12 @@
         <v>53</v>
       </c>
       <c r="X88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X89" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.45">
@@ -6804,7 +6801,7 @@
         <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -6852,7 +6849,7 @@
         <v>45</v>
       </c>
       <c r="R90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S90" t="s">
         <v>17</v>
@@ -6867,15 +6864,15 @@
         <v>53</v>
       </c>
       <c r="X90" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -6923,7 +6920,7 @@
         <v>45</v>
       </c>
       <c r="R91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S91" t="s">
         <v>17</v>
@@ -6938,15 +6935,15 @@
         <v>53</v>
       </c>
       <c r="X91" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -6973,7 +6970,7 @@
         <v>34</v>
       </c>
       <c r="K92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L92" t="s">
         <v>47</v>
@@ -6994,7 +6991,7 @@
         <v>45</v>
       </c>
       <c r="R92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S92" t="s">
         <v>17</v>
@@ -7009,15 +7006,15 @@
         <v>53</v>
       </c>
       <c r="X92" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C93" t="s">
         <v>56</v>
@@ -7065,7 +7062,7 @@
         <v>45</v>
       </c>
       <c r="R93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S93" t="s">
         <v>17</v>
@@ -7080,15 +7077,15 @@
         <v>53</v>
       </c>
       <c r="X93" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B94" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C94" t="s">
         <v>56</v>
@@ -7136,7 +7133,7 @@
         <v>45</v>
       </c>
       <c r="R94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S94" t="s">
         <v>17</v>
@@ -7151,15 +7148,15 @@
         <v>53</v>
       </c>
       <c r="X94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C95" t="s">
         <v>56</v>
@@ -7207,7 +7204,7 @@
         <v>45</v>
       </c>
       <c r="R95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S95" t="s">
         <v>17</v>
@@ -7222,15 +7219,15 @@
         <v>53</v>
       </c>
       <c r="X95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C96" t="s">
         <v>56</v>
@@ -7278,7 +7275,7 @@
         <v>45</v>
       </c>
       <c r="R96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S96" t="s">
         <v>17</v>
@@ -7293,15 +7290,15 @@
         <v>53</v>
       </c>
       <c r="X96" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B97" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C97" t="s">
         <v>48</v>
@@ -7313,7 +7310,7 @@
         <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G97" t="s">
         <v>47</v>
@@ -7349,7 +7346,7 @@
         <v>45</v>
       </c>
       <c r="R97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S97" t="s">
         <v>17</v>
@@ -7364,15 +7361,15 @@
         <v>53</v>
       </c>
       <c r="X97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C98" t="s">
         <v>48</v>
@@ -7384,7 +7381,7 @@
         <v>47</v>
       </c>
       <c r="F98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G98" t="s">
         <v>47</v>
@@ -7420,7 +7417,7 @@
         <v>45</v>
       </c>
       <c r="R98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S98" t="s">
         <v>17</v>
@@ -7435,15 +7432,15 @@
         <v>53</v>
       </c>
       <c r="X98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B99" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C99" t="s">
         <v>48</v>
@@ -7455,7 +7452,7 @@
         <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G99" t="s">
         <v>21</v>
@@ -7491,7 +7488,7 @@
         <v>45</v>
       </c>
       <c r="R99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S99" t="s">
         <v>17</v>
@@ -7506,15 +7503,15 @@
         <v>53</v>
       </c>
       <c r="X99" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C100" t="s">
         <v>48</v>
@@ -7526,7 +7523,7 @@
         <v>47</v>
       </c>
       <c r="F100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G100" t="s">
         <v>47</v>
@@ -7562,7 +7559,7 @@
         <v>45</v>
       </c>
       <c r="R100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S100" t="s">
         <v>17</v>
@@ -7577,20 +7574,20 @@
         <v>53</v>
       </c>
       <c r="X100" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X101" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C102" t="s">
         <v>48</v>
@@ -7602,7 +7599,7 @@
         <v>47</v>
       </c>
       <c r="F102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G102" t="s">
         <v>47</v>
@@ -7638,13 +7635,13 @@
         <v>44</v>
       </c>
       <c r="R102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S102" t="s">
         <v>17</v>
       </c>
       <c r="T102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U102" t="s">
         <v>52</v>
@@ -7653,15 +7650,15 @@
         <v>53</v>
       </c>
       <c r="X102" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B103" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C103" t="s">
         <v>48</v>
@@ -7673,7 +7670,7 @@
         <v>47</v>
       </c>
       <c r="F103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G103" t="s">
         <v>47</v>
@@ -7709,13 +7706,13 @@
         <v>44</v>
       </c>
       <c r="R103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S103" t="s">
         <v>17</v>
       </c>
       <c r="T103" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U103" t="s">
         <v>52</v>
@@ -7724,20 +7721,20 @@
         <v>53</v>
       </c>
       <c r="X103" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X104" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C105" t="s">
         <v>56</v>
@@ -7770,7 +7767,7 @@
         <v>47</v>
       </c>
       <c r="M105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N105" t="s">
         <v>14</v>
@@ -7785,7 +7782,7 @@
         <v>44</v>
       </c>
       <c r="R105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S105" t="s">
         <v>17</v>
@@ -7800,15 +7797,15 @@
         <v>53</v>
       </c>
       <c r="X105" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B106" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C106" t="s">
         <v>56</v>
@@ -7841,7 +7838,7 @@
         <v>47</v>
       </c>
       <c r="M106" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N106" t="s">
         <v>14</v>
@@ -7871,15 +7868,15 @@
         <v>53</v>
       </c>
       <c r="X106" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B107" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C107" t="s">
         <v>56</v>
@@ -7906,13 +7903,13 @@
         <v>36</v>
       </c>
       <c r="K107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L107" t="s">
         <v>47</v>
       </c>
       <c r="M107" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N107" t="s">
         <v>14</v>
@@ -7942,15 +7939,15 @@
         <v>53</v>
       </c>
       <c r="X107" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B108" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C108" t="s">
         <v>48</v>
@@ -7962,7 +7959,7 @@
         <v>47</v>
       </c>
       <c r="F108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G108" t="s">
         <v>47</v>
@@ -7977,13 +7974,13 @@
         <v>34</v>
       </c>
       <c r="K108" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L108" t="s">
         <v>47</v>
       </c>
       <c r="M108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N108" t="s">
         <v>14</v>
@@ -8013,15 +8010,15 @@
         <v>53</v>
       </c>
       <c r="X108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C109" t="s">
         <v>56</v>
@@ -8054,7 +8051,7 @@
         <v>47</v>
       </c>
       <c r="M109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N109" t="s">
         <v>9</v>
@@ -8069,7 +8066,7 @@
         <v>44</v>
       </c>
       <c r="R109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S109" t="s">
         <v>17</v>
@@ -8084,15 +8081,15 @@
         <v>53</v>
       </c>
       <c r="X109" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C110" t="s">
         <v>56</v>
@@ -8125,7 +8122,7 @@
         <v>47</v>
       </c>
       <c r="M110" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N110" t="s">
         <v>9</v>
@@ -8155,15 +8152,15 @@
         <v>53</v>
       </c>
       <c r="X110" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B111" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C111" t="s">
         <v>56</v>
@@ -8190,13 +8187,13 @@
         <v>36</v>
       </c>
       <c r="K111" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L111" t="s">
         <v>47</v>
       </c>
       <c r="M111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N111" t="s">
         <v>9</v>
@@ -8226,15 +8223,15 @@
         <v>53</v>
       </c>
       <c r="X111" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B112" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C112" t="s">
         <v>48</v>
@@ -8246,7 +8243,7 @@
         <v>47</v>
       </c>
       <c r="F112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G112" t="s">
         <v>47</v>
@@ -8261,13 +8258,13 @@
         <v>34</v>
       </c>
       <c r="K112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L112" t="s">
         <v>47</v>
       </c>
       <c r="M112" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N112" t="s">
         <v>9</v>
@@ -8297,20 +8294,20 @@
         <v>53</v>
       </c>
       <c r="X112" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X113" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C114" t="s">
         <v>48</v>
@@ -8322,7 +8319,7 @@
         <v>47</v>
       </c>
       <c r="F114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G114" t="s">
         <v>47</v>
@@ -8358,7 +8355,7 @@
         <v>44</v>
       </c>
       <c r="R114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S114" t="s">
         <v>17</v>
@@ -8373,7 +8370,7 @@
         <v>53</v>
       </c>
       <c r="X114" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.45">
@@ -8381,7 +8378,7 @@
         <v>37</v>
       </c>
       <c r="B115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C115" t="s">
         <v>48</v>
@@ -8393,7 +8390,7 @@
         <v>47</v>
       </c>
       <c r="F115" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G115" t="s">
         <v>21</v>
@@ -8429,7 +8426,7 @@
         <v>44</v>
       </c>
       <c r="R115" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S115" t="s">
         <v>17</v>
@@ -8444,15 +8441,15 @@
         <v>53</v>
       </c>
       <c r="X115" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C116" t="s">
         <v>48</v>
@@ -8464,7 +8461,7 @@
         <v>2</v>
       </c>
       <c r="F116" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G116" t="s">
         <v>21</v>
@@ -8500,7 +8497,7 @@
         <v>44</v>
       </c>
       <c r="R116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S116" t="s">
         <v>17</v>
@@ -8515,15 +8512,15 @@
         <v>53</v>
       </c>
       <c r="X116" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C117" t="s">
         <v>48</v>
@@ -8535,7 +8532,7 @@
         <v>47</v>
       </c>
       <c r="F117" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G117" t="s">
         <v>47</v>
@@ -8571,7 +8568,7 @@
         <v>44</v>
       </c>
       <c r="R117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S117" t="s">
         <v>17</v>
@@ -8586,15 +8583,15 @@
         <v>53</v>
       </c>
       <c r="X117" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C118" t="s">
         <v>48</v>
@@ -8606,7 +8603,7 @@
         <v>47</v>
       </c>
       <c r="F118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G118" t="s">
         <v>47</v>
@@ -8642,7 +8639,7 @@
         <v>44</v>
       </c>
       <c r="R118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S118" t="s">
         <v>17</v>
@@ -8657,15 +8654,15 @@
         <v>53</v>
       </c>
       <c r="X118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B119" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C119" t="s">
         <v>48</v>
@@ -8677,7 +8674,7 @@
         <v>47</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G119" t="s">
         <v>21</v>
@@ -8713,7 +8710,7 @@
         <v>44</v>
       </c>
       <c r="R119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S119" t="s">
         <v>17</v>
@@ -8728,15 +8725,15 @@
         <v>53</v>
       </c>
       <c r="X119" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C120" t="s">
         <v>48</v>
@@ -8748,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G120" t="s">
         <v>21</v>
@@ -8784,7 +8781,7 @@
         <v>44</v>
       </c>
       <c r="R120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S120" t="s">
         <v>17</v>
@@ -8799,15 +8796,15 @@
         <v>53</v>
       </c>
       <c r="X120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C121" t="s">
         <v>48</v>
@@ -8819,7 +8816,7 @@
         <v>47</v>
       </c>
       <c r="F121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G121" t="s">
         <v>47</v>
@@ -8855,7 +8852,7 @@
         <v>44</v>
       </c>
       <c r="R121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S121" t="s">
         <v>17</v>
@@ -8870,20 +8867,20 @@
         <v>53</v>
       </c>
       <c r="X121" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X122" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B123" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C123" t="s">
         <v>47</v>
@@ -8895,7 +8892,7 @@
         <v>47</v>
       </c>
       <c r="F123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G123" t="s">
         <v>47</v>
@@ -8931,13 +8928,13 @@
         <v>44</v>
       </c>
       <c r="R123" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S123" t="s">
         <v>17</v>
       </c>
       <c r="T123" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U123" t="s">
         <v>51</v>
@@ -8946,15 +8943,15 @@
         <v>53</v>
       </c>
       <c r="X123" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B124" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C124" t="s">
         <v>47</v>
@@ -8966,7 +8963,7 @@
         <v>47</v>
       </c>
       <c r="F124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G124" t="s">
         <v>47</v>
@@ -9002,13 +8999,13 @@
         <v>44</v>
       </c>
       <c r="R124" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S124" t="s">
         <v>17</v>
       </c>
       <c r="T124" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U124" t="s">
         <v>51</v>
@@ -9017,15 +9014,15 @@
         <v>53</v>
       </c>
       <c r="X124" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B125" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C125" t="s">
         <v>47</v>
@@ -9037,7 +9034,7 @@
         <v>47</v>
       </c>
       <c r="F125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G125" t="s">
         <v>47</v>
@@ -9073,7 +9070,7 @@
         <v>45</v>
       </c>
       <c r="R125" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S125" t="s">
         <v>17</v>
@@ -9085,15 +9082,15 @@
         <v>52</v>
       </c>
       <c r="V125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X125" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X126" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.45">
@@ -9101,7 +9098,7 @@
         <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C127" t="s">
         <v>48</v>
@@ -9131,7 +9128,7 @@
         <v>30</v>
       </c>
       <c r="L127" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M127" t="s">
         <v>29</v>
@@ -9149,7 +9146,7 @@
         <v>44</v>
       </c>
       <c r="R127" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S127" t="s">
         <v>17</v>
@@ -9164,15 +9161,15 @@
         <v>53</v>
       </c>
       <c r="X127" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B128" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C128" t="s">
         <v>48</v>
@@ -9202,7 +9199,7 @@
         <v>30</v>
       </c>
       <c r="L128" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M128" t="s">
         <v>29</v>
@@ -9220,7 +9217,7 @@
         <v>44</v>
       </c>
       <c r="R128" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S128" t="s">
         <v>17</v>
@@ -9235,7 +9232,7 @@
         <v>53</v>
       </c>
       <c r="X128" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.45">
@@ -9243,7 +9240,7 @@
         <v>25</v>
       </c>
       <c r="B129" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C129" t="s">
         <v>48</v>
@@ -9273,7 +9270,7 @@
         <v>31</v>
       </c>
       <c r="L129" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M129" t="s">
         <v>29</v>
@@ -9291,7 +9288,7 @@
         <v>44</v>
       </c>
       <c r="R129" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S129" t="s">
         <v>17</v>
@@ -9306,15 +9303,15 @@
         <v>53</v>
       </c>
       <c r="X129" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B130" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C130" t="s">
         <v>48</v>
@@ -9344,7 +9341,7 @@
         <v>31</v>
       </c>
       <c r="L130" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M130" t="s">
         <v>29</v>
@@ -9362,7 +9359,7 @@
         <v>44</v>
       </c>
       <c r="R130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S130" t="s">
         <v>17</v>
@@ -9377,15 +9374,15 @@
         <v>53</v>
       </c>
       <c r="X130" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B131" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C131" t="s">
         <v>48</v>
@@ -9415,7 +9412,7 @@
         <v>32</v>
       </c>
       <c r="L131" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M131" t="s">
         <v>29</v>
@@ -9433,7 +9430,7 @@
         <v>44</v>
       </c>
       <c r="R131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S131" t="s">
         <v>17</v>
@@ -9448,7 +9445,7 @@
         <v>53</v>
       </c>
       <c r="X131" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.45">
@@ -9456,7 +9453,7 @@
         <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C132" t="s">
         <v>48</v>
@@ -9486,7 +9483,7 @@
         <v>32</v>
       </c>
       <c r="L132" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M132" t="s">
         <v>29</v>
@@ -9504,7 +9501,7 @@
         <v>44</v>
       </c>
       <c r="R132" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S132" t="s">
         <v>17</v>
@@ -9519,15 +9516,15 @@
         <v>53</v>
       </c>
       <c r="X132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B133" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C133" t="s">
         <v>48</v>
@@ -9557,7 +9554,7 @@
         <v>32</v>
       </c>
       <c r="L133" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M133" t="s">
         <v>29</v>
@@ -9575,7 +9572,7 @@
         <v>44</v>
       </c>
       <c r="R133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S133" t="s">
         <v>17</v>
@@ -9590,7 +9587,7 @@
         <v>53</v>
       </c>
       <c r="X133" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.45">
@@ -9598,7 +9595,7 @@
         <v>27</v>
       </c>
       <c r="B134" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C134" t="s">
         <v>48</v>
@@ -9628,7 +9625,7 @@
         <v>31</v>
       </c>
       <c r="L134" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M134" t="s">
         <v>29</v>
@@ -9646,7 +9643,7 @@
         <v>44</v>
       </c>
       <c r="R134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S134" t="s">
         <v>17</v>
@@ -9661,15 +9658,15 @@
         <v>53</v>
       </c>
       <c r="X134" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B135" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C135" t="s">
         <v>48</v>
@@ -9699,7 +9696,7 @@
         <v>31</v>
       </c>
       <c r="L135" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M135" t="s">
         <v>29</v>
@@ -9717,7 +9714,7 @@
         <v>44</v>
       </c>
       <c r="R135" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S135" t="s">
         <v>17</v>
@@ -9732,7 +9729,7 @@
         <v>53</v>
       </c>
       <c r="X135" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.45">
@@ -9740,7 +9737,7 @@
         <v>28</v>
       </c>
       <c r="B136" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C136" t="s">
         <v>48</v>
@@ -9770,7 +9767,7 @@
         <v>30</v>
       </c>
       <c r="L136" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M136" t="s">
         <v>29</v>
@@ -9788,7 +9785,7 @@
         <v>44</v>
       </c>
       <c r="R136" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S136" t="s">
         <v>17</v>
@@ -9803,15 +9800,15 @@
         <v>53</v>
       </c>
       <c r="X136" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B137" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C137" t="s">
         <v>48</v>
@@ -9841,7 +9838,7 @@
         <v>30</v>
       </c>
       <c r="L137" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M137" t="s">
         <v>29</v>
@@ -9859,7 +9856,7 @@
         <v>44</v>
       </c>
       <c r="R137" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S137" t="s">
         <v>17</v>
@@ -9874,20 +9871,20 @@
         <v>53</v>
       </c>
       <c r="X137" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X138" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B139" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C139" t="s">
         <v>48</v>
@@ -9917,7 +9914,7 @@
         <v>30</v>
       </c>
       <c r="L139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M139" t="s">
         <v>29</v>
@@ -9935,7 +9932,7 @@
         <v>44</v>
       </c>
       <c r="R139" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S139" t="s">
         <v>18</v>
@@ -9950,15 +9947,15 @@
         <v>53</v>
       </c>
       <c r="X139" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B140" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C140" t="s">
         <v>48</v>
@@ -9988,7 +9985,7 @@
         <v>30</v>
       </c>
       <c r="L140" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M140" t="s">
         <v>29</v>
@@ -10006,7 +10003,7 @@
         <v>44</v>
       </c>
       <c r="R140" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S140" t="s">
         <v>18</v>
@@ -10021,15 +10018,15 @@
         <v>53</v>
       </c>
       <c r="X140" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B141" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C141" t="s">
         <v>48</v>
@@ -10059,7 +10056,7 @@
         <v>31</v>
       </c>
       <c r="L141" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M141" t="s">
         <v>29</v>
@@ -10077,7 +10074,7 @@
         <v>44</v>
       </c>
       <c r="R141" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S141" t="s">
         <v>18</v>
@@ -10092,15 +10089,15 @@
         <v>53</v>
       </c>
       <c r="X141" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B142" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C142" t="s">
         <v>48</v>
@@ -10130,7 +10127,7 @@
         <v>31</v>
       </c>
       <c r="L142" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M142" t="s">
         <v>29</v>
@@ -10148,7 +10145,7 @@
         <v>44</v>
       </c>
       <c r="R142" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S142" t="s">
         <v>18</v>
@@ -10163,15 +10160,15 @@
         <v>53</v>
       </c>
       <c r="X142" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B143" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C143" t="s">
         <v>48</v>
@@ -10201,7 +10198,7 @@
         <v>32</v>
       </c>
       <c r="L143" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M143" t="s">
         <v>29</v>
@@ -10219,7 +10216,7 @@
         <v>44</v>
       </c>
       <c r="R143" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S143" t="s">
         <v>18</v>
@@ -10234,15 +10231,15 @@
         <v>53</v>
       </c>
       <c r="X143" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B144" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C144" t="s">
         <v>48</v>
@@ -10272,7 +10269,7 @@
         <v>32</v>
       </c>
       <c r="L144" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M144" t="s">
         <v>29</v>
@@ -10290,7 +10287,7 @@
         <v>44</v>
       </c>
       <c r="R144" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S144" t="s">
         <v>18</v>
@@ -10305,15 +10302,15 @@
         <v>53</v>
       </c>
       <c r="X144" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B145" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C145" t="s">
         <v>48</v>
@@ -10343,7 +10340,7 @@
         <v>32</v>
       </c>
       <c r="L145" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M145" t="s">
         <v>29</v>
@@ -10361,7 +10358,7 @@
         <v>44</v>
       </c>
       <c r="R145" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S145" t="s">
         <v>18</v>
@@ -10376,15 +10373,15 @@
         <v>53</v>
       </c>
       <c r="X145" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B146" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C146" t="s">
         <v>48</v>
@@ -10414,7 +10411,7 @@
         <v>31</v>
       </c>
       <c r="L146" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M146" t="s">
         <v>29</v>
@@ -10432,7 +10429,7 @@
         <v>44</v>
       </c>
       <c r="R146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S146" t="s">
         <v>18</v>
@@ -10447,15 +10444,15 @@
         <v>53</v>
       </c>
       <c r="X146" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B147" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C147" t="s">
         <v>48</v>
@@ -10485,7 +10482,7 @@
         <v>31</v>
       </c>
       <c r="L147" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M147" t="s">
         <v>29</v>
@@ -10503,7 +10500,7 @@
         <v>44</v>
       </c>
       <c r="R147" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S147" t="s">
         <v>18</v>
@@ -10518,15 +10515,15 @@
         <v>53</v>
       </c>
       <c r="X147" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B148" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C148" t="s">
         <v>48</v>
@@ -10556,7 +10553,7 @@
         <v>30</v>
       </c>
       <c r="L148" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M148" t="s">
         <v>29</v>
@@ -10574,7 +10571,7 @@
         <v>44</v>
       </c>
       <c r="R148" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S148" t="s">
         <v>18</v>
@@ -10589,15 +10586,15 @@
         <v>53</v>
       </c>
       <c r="X148" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B149" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C149" t="s">
         <v>48</v>
@@ -10627,7 +10624,7 @@
         <v>30</v>
       </c>
       <c r="L149" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M149" t="s">
         <v>29</v>
@@ -10645,7 +10642,7 @@
         <v>44</v>
       </c>
       <c r="R149" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S149" t="s">
         <v>18</v>
@@ -10660,20 +10657,20 @@
         <v>53</v>
       </c>
       <c r="X149" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X150" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C151" t="s">
         <v>48</v>
@@ -10703,7 +10700,7 @@
         <v>30</v>
       </c>
       <c r="L151" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M151" t="s">
         <v>29</v>
@@ -10721,7 +10718,7 @@
         <v>44</v>
       </c>
       <c r="R151" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S151" t="s">
         <v>17</v>
@@ -10736,15 +10733,15 @@
         <v>53</v>
       </c>
       <c r="X151" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C152" t="s">
         <v>48</v>
@@ -10774,7 +10771,7 @@
         <v>30</v>
       </c>
       <c r="L152" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M152" t="s">
         <v>29</v>
@@ -10792,7 +10789,7 @@
         <v>44</v>
       </c>
       <c r="R152" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S152" t="s">
         <v>17</v>
@@ -10807,15 +10804,15 @@
         <v>53</v>
       </c>
       <c r="X152" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C153" t="s">
         <v>48</v>
@@ -10845,7 +10842,7 @@
         <v>31</v>
       </c>
       <c r="L153" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M153" t="s">
         <v>29</v>
@@ -10863,7 +10860,7 @@
         <v>44</v>
       </c>
       <c r="R153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S153" t="s">
         <v>17</v>
@@ -10878,15 +10875,15 @@
         <v>53</v>
       </c>
       <c r="X153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C154" t="s">
         <v>48</v>
@@ -10916,7 +10913,7 @@
         <v>31</v>
       </c>
       <c r="L154" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M154" t="s">
         <v>29</v>
@@ -10934,7 +10931,7 @@
         <v>44</v>
       </c>
       <c r="R154" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S154" t="s">
         <v>17</v>
@@ -10949,15 +10946,15 @@
         <v>53</v>
       </c>
       <c r="X154" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C155" t="s">
         <v>48</v>
@@ -10987,7 +10984,7 @@
         <v>32</v>
       </c>
       <c r="L155" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M155" t="s">
         <v>29</v>
@@ -11005,7 +11002,7 @@
         <v>44</v>
       </c>
       <c r="R155" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S155" t="s">
         <v>17</v>
@@ -11020,15 +11017,15 @@
         <v>53</v>
       </c>
       <c r="X155" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C156" t="s">
         <v>48</v>
@@ -11058,7 +11055,7 @@
         <v>31</v>
       </c>
       <c r="L156" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M156" t="s">
         <v>29</v>
@@ -11076,7 +11073,7 @@
         <v>44</v>
       </c>
       <c r="R156" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S156" t="s">
         <v>17</v>
@@ -11091,15 +11088,15 @@
         <v>53</v>
       </c>
       <c r="X156" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C157" t="s">
         <v>48</v>
@@ -11129,7 +11126,7 @@
         <v>31</v>
       </c>
       <c r="L157" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M157" t="s">
         <v>29</v>
@@ -11147,7 +11144,7 @@
         <v>44</v>
       </c>
       <c r="R157" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S157" t="s">
         <v>17</v>
@@ -11162,15 +11159,15 @@
         <v>53</v>
       </c>
       <c r="X157" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C158" t="s">
         <v>48</v>
@@ -11200,7 +11197,7 @@
         <v>30</v>
       </c>
       <c r="L158" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M158" t="s">
         <v>29</v>
@@ -11218,7 +11215,7 @@
         <v>44</v>
       </c>
       <c r="R158" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S158" t="s">
         <v>17</v>
@@ -11233,15 +11230,15 @@
         <v>53</v>
       </c>
       <c r="X158" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C159" t="s">
         <v>48</v>
@@ -11271,7 +11268,7 @@
         <v>30</v>
       </c>
       <c r="L159" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M159" t="s">
         <v>29</v>
@@ -11289,7 +11286,7 @@
         <v>44</v>
       </c>
       <c r="R159" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S159" t="s">
         <v>17</v>
@@ -11304,20 +11301,20 @@
         <v>53</v>
       </c>
       <c r="X159" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X160" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B161" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C161" t="s">
         <v>48</v>
@@ -11347,7 +11344,7 @@
         <v>30</v>
       </c>
       <c r="L161" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M161" t="s">
         <v>29</v>
@@ -11365,7 +11362,7 @@
         <v>44</v>
       </c>
       <c r="R161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S161" t="s">
         <v>18</v>
@@ -11380,15 +11377,15 @@
         <v>53</v>
       </c>
       <c r="X161" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B162" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C162" t="s">
         <v>48</v>
@@ -11418,7 +11415,7 @@
         <v>30</v>
       </c>
       <c r="L162" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M162" t="s">
         <v>29</v>
@@ -11436,7 +11433,7 @@
         <v>44</v>
       </c>
       <c r="R162" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S162" t="s">
         <v>18</v>
@@ -11451,15 +11448,15 @@
         <v>53</v>
       </c>
       <c r="X162" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B163" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C163" t="s">
         <v>48</v>
@@ -11489,7 +11486,7 @@
         <v>31</v>
       </c>
       <c r="L163" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M163" t="s">
         <v>29</v>
@@ -11507,7 +11504,7 @@
         <v>44</v>
       </c>
       <c r="R163" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S163" t="s">
         <v>18</v>
@@ -11522,15 +11519,15 @@
         <v>53</v>
       </c>
       <c r="X163" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B164" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C164" t="s">
         <v>48</v>
@@ -11560,7 +11557,7 @@
         <v>31</v>
       </c>
       <c r="L164" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M164" t="s">
         <v>29</v>
@@ -11578,7 +11575,7 @@
         <v>44</v>
       </c>
       <c r="R164" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S164" t="s">
         <v>18</v>
@@ -11593,15 +11590,15 @@
         <v>53</v>
       </c>
       <c r="X164" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B165" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C165" t="s">
         <v>48</v>
@@ -11631,7 +11628,7 @@
         <v>32</v>
       </c>
       <c r="L165" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M165" t="s">
         <v>29</v>
@@ -11649,7 +11646,7 @@
         <v>44</v>
       </c>
       <c r="R165" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S165" t="s">
         <v>18</v>
@@ -11664,15 +11661,15 @@
         <v>53</v>
       </c>
       <c r="X165" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B166" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C166" t="s">
         <v>48</v>
@@ -11702,7 +11699,7 @@
         <v>31</v>
       </c>
       <c r="L166" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M166" t="s">
         <v>29</v>
@@ -11720,7 +11717,7 @@
         <v>44</v>
       </c>
       <c r="R166" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S166" t="s">
         <v>18</v>
@@ -11735,15 +11732,15 @@
         <v>53</v>
       </c>
       <c r="X166" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B167" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C167" t="s">
         <v>48</v>
@@ -11773,7 +11770,7 @@
         <v>31</v>
       </c>
       <c r="L167" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M167" t="s">
         <v>29</v>
@@ -11791,7 +11788,7 @@
         <v>44</v>
       </c>
       <c r="R167" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S167" t="s">
         <v>18</v>
@@ -11806,15 +11803,15 @@
         <v>53</v>
       </c>
       <c r="X167" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B168" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C168" t="s">
         <v>48</v>
@@ -11844,7 +11841,7 @@
         <v>30</v>
       </c>
       <c r="L168" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M168" t="s">
         <v>29</v>
@@ -11862,7 +11859,7 @@
         <v>44</v>
       </c>
       <c r="R168" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S168" t="s">
         <v>18</v>
@@ -11877,15 +11874,15 @@
         <v>53</v>
       </c>
       <c r="X168" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B169" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C169" t="s">
         <v>48</v>
@@ -11915,7 +11912,7 @@
         <v>30</v>
       </c>
       <c r="L169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M169" t="s">
         <v>29</v>
@@ -11933,7 +11930,7 @@
         <v>44</v>
       </c>
       <c r="R169" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S169" t="s">
         <v>18</v>
@@ -11948,20 +11945,20 @@
         <v>53</v>
       </c>
       <c r="X169" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.45">
       <c r="X170" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="171" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C171" t="s">
         <v>48</v>
@@ -11991,7 +11988,7 @@
         <v>31</v>
       </c>
       <c r="L171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M171" t="s">
         <v>29</v>
@@ -12009,7 +12006,7 @@
         <v>44</v>
       </c>
       <c r="R171" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S171" t="s">
         <v>17</v>
@@ -12024,15 +12021,15 @@
         <v>53</v>
       </c>
       <c r="X171" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B172" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C172" t="s">
         <v>48</v>
@@ -12062,7 +12059,7 @@
         <v>30</v>
       </c>
       <c r="L172" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M172" t="s">
         <v>29</v>
@@ -12080,7 +12077,7 @@
         <v>44</v>
       </c>
       <c r="R172" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S172" t="s">
         <v>17</v>
@@ -12095,15 +12092,15 @@
         <v>53</v>
       </c>
       <c r="X172" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B173" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C173" t="s">
         <v>48</v>
@@ -12133,7 +12130,7 @@
         <v>30</v>
       </c>
       <c r="L173" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M173" t="s">
         <v>29</v>
@@ -12151,7 +12148,7 @@
         <v>44</v>
       </c>
       <c r="R173" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S173" t="s">
         <v>17</v>
@@ -12166,15 +12163,15 @@
         <v>53</v>
       </c>
       <c r="X173" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C174" t="s">
         <v>48</v>
@@ -12204,7 +12201,7 @@
         <v>31</v>
       </c>
       <c r="L174" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M174" t="s">
         <v>29</v>
@@ -12222,7 +12219,7 @@
         <v>44</v>
       </c>
       <c r="R174" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S174" t="s">
         <v>18</v>
@@ -12237,15 +12234,15 @@
         <v>53</v>
       </c>
       <c r="X174" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B175" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C175" t="s">
         <v>48</v>
@@ -12275,7 +12272,7 @@
         <v>30</v>
       </c>
       <c r="L175" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M175" t="s">
         <v>29</v>
@@ -12293,7 +12290,7 @@
         <v>44</v>
       </c>
       <c r="R175" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S175" t="s">
         <v>18</v>
@@ -12308,15 +12305,15 @@
         <v>53</v>
       </c>
       <c r="X175" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B176" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C176" t="s">
         <v>48</v>
@@ -12346,7 +12343,7 @@
         <v>30</v>
       </c>
       <c r="L176" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M176" t="s">
         <v>29</v>
@@ -12364,7 +12361,7 @@
         <v>44</v>
       </c>
       <c r="R176" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S176" t="s">
         <v>18</v>
@@ -12379,7 +12376,7 @@
         <v>53</v>
       </c>
       <c r="X176" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/src/defaultipa.xlsx
+++ b/src/defaultipa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\accel\ProjectHome\phonetic-problem-generator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38780486-6B50-4A90-ABB9-D6900D962139}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085C7D6F-A302-41E0-8518-B68D441B85E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18120" xr2:uid="{A2B073AC-DFC3-D048-8692-BFCEF974FFF8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4471" uniqueCount="284">
   <si>
     <t>p</t>
   </si>
@@ -420,6 +420,12 @@
     <t>velar</t>
   </si>
   <si>
+    <t>labial-velar</t>
+  </si>
+  <si>
+    <t>labial-palatal</t>
+  </si>
+  <si>
     <t>j̥</t>
   </si>
   <si>
@@ -729,16 +735,145 @@
     <t>kʷʰ</t>
   </si>
   <si>
+    <t>i̥</t>
+  </si>
+  <si>
+    <t>ɪ̥</t>
+  </si>
+  <si>
+    <t>e̥</t>
+  </si>
+  <si>
+    <t>ɛ̥</t>
+  </si>
+  <si>
+    <t>æ̥</t>
+  </si>
+  <si>
+    <t>ḁ</t>
+  </si>
+  <si>
+    <t>ɑ̥</t>
+  </si>
+  <si>
+    <t>o̥</t>
+  </si>
+  <si>
+    <t>ɔ̥</t>
+  </si>
+  <si>
+    <t>u̥</t>
+  </si>
+  <si>
+    <t>ʊ̥</t>
+  </si>
+  <si>
+    <t>ĩ̥</t>
+  </si>
+  <si>
+    <t>ɪ̥̃</t>
+  </si>
+  <si>
+    <t>ẽ̥</t>
+  </si>
+  <si>
+    <t>ɛ̥̃</t>
+  </si>
+  <si>
+    <t>æ̥̃</t>
+  </si>
+  <si>
+    <t>ḁ̃</t>
+  </si>
+  <si>
+    <t>ɑ̥̃</t>
+  </si>
+  <si>
+    <t>õ̥</t>
+  </si>
+  <si>
+    <t>ɔ̥̃</t>
+  </si>
+  <si>
+    <t>ũ̥</t>
+  </si>
+  <si>
+    <t>ʊ̥̃</t>
+  </si>
+  <si>
+    <t>y̥</t>
+  </si>
+  <si>
+    <t>ʏ̥</t>
+  </si>
+  <si>
+    <t>ø̥</t>
+  </si>
+  <si>
+    <t>œ̥</t>
+  </si>
+  <si>
+    <t>ɒ̥</t>
+  </si>
+  <si>
+    <t>ɤ̥</t>
+  </si>
+  <si>
+    <t>ʌ̥</t>
+  </si>
+  <si>
+    <t>ɯ̥</t>
+  </si>
+  <si>
+    <t>ɯ̥̽</t>
+  </si>
+  <si>
+    <t>ỹ̥</t>
+  </si>
+  <si>
+    <t>ʏ̥̃</t>
+  </si>
+  <si>
+    <t>ø̥̃</t>
+  </si>
+  <si>
+    <t>œ̥̃</t>
+  </si>
+  <si>
+    <t>ɒ̥̃</t>
+  </si>
+  <si>
+    <t>ɤ̥̃</t>
+  </si>
+  <si>
+    <t>ʌ̥̃</t>
+  </si>
+  <si>
+    <t>ɯ̥̃</t>
+  </si>
+  <si>
+    <t>ɯ̥̽̃</t>
+  </si>
+  <si>
+    <t>ə̥</t>
+  </si>
+  <si>
+    <t>ɨ̥</t>
+  </si>
+  <si>
+    <t>ʉ̥</t>
+  </si>
+  <si>
+    <t>ə̥̃</t>
+  </si>
+  <si>
+    <t>ɨ̥̃</t>
+  </si>
+  <si>
+    <t>ʉ̥̃</t>
+  </si>
+  <si>
     <t>[TL]</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>labial velar</t>
-  </si>
-  <si>
-    <t>labial palatal</t>
   </si>
   <si>
     <t>consonant</t>
@@ -1093,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580C24B1-92A6-954F-80C3-690B3863B6C1}">
-  <dimension ref="A1:X176"/>
+  <dimension ref="A1:V227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -1125,7 +1260,7 @@
     <col min="22" max="22" width="18.640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="G1" t="s">
         <v>71</v>
       </c>
@@ -1142,9 +1277,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -1209,16 +1344,13 @@
       <c r="V2" t="s">
         <v>50</v>
       </c>
-      <c r="X2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1280,16 +1412,13 @@
       <c r="V3" t="s">
         <v>53</v>
       </c>
-      <c r="X3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1351,16 +1480,13 @@
       <c r="V4" t="s">
         <v>53</v>
       </c>
-      <c r="X4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1422,16 +1548,13 @@
       <c r="V5" t="s">
         <v>53</v>
       </c>
-      <c r="X5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1493,16 +1616,13 @@
       <c r="V6" t="s">
         <v>53</v>
       </c>
-      <c r="X6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1564,16 +1684,13 @@
       <c r="V7" t="s">
         <v>53</v>
       </c>
-      <c r="X7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1635,16 +1752,13 @@
       <c r="V8" t="s">
         <v>53</v>
       </c>
-      <c r="X8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -1706,16 +1820,13 @@
       <c r="V9" t="s">
         <v>53</v>
       </c>
-      <c r="X9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1777,21 +1888,13 @@
       <c r="V10" t="s">
         <v>53</v>
       </c>
-      <c r="X10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1853,16 +1956,13 @@
       <c r="V12" t="s">
         <v>53</v>
       </c>
-      <c r="X12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1924,16 +2024,13 @@
       <c r="V13" t="s">
         <v>53</v>
       </c>
-      <c r="X13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1995,16 +2092,13 @@
       <c r="V14" t="s">
         <v>53</v>
       </c>
-      <c r="X14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B15" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -2066,16 +2160,13 @@
       <c r="V15" t="s">
         <v>53</v>
       </c>
-      <c r="X15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -2137,16 +2228,13 @@
       <c r="V16" t="s">
         <v>53</v>
       </c>
-      <c r="X16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2208,16 +2296,13 @@
       <c r="V17" t="s">
         <v>53</v>
       </c>
-      <c r="X17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -2279,16 +2364,13 @@
       <c r="V18" t="s">
         <v>53</v>
       </c>
-      <c r="X18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -2350,21 +2432,13 @@
       <c r="V19" t="s">
         <v>53</v>
       </c>
-      <c r="X19" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -2391,7 +2465,7 @@
         <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s">
         <v>47</v>
@@ -2426,16 +2500,13 @@
       <c r="V21" t="s">
         <v>53</v>
       </c>
-      <c r="X21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -2462,7 +2533,7 @@
         <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s">
         <v>47</v>
@@ -2497,16 +2568,13 @@
       <c r="V22" t="s">
         <v>53</v>
       </c>
-      <c r="X22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -2533,7 +2601,7 @@
         <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s">
         <v>47</v>
@@ -2568,16 +2636,13 @@
       <c r="V23" t="s">
         <v>53</v>
       </c>
-      <c r="X23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -2604,7 +2669,7 @@
         <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s">
         <v>47</v>
@@ -2639,16 +2704,13 @@
       <c r="V24" t="s">
         <v>53</v>
       </c>
-      <c r="X24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -2675,7 +2737,7 @@
         <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s">
         <v>47</v>
@@ -2710,16 +2772,13 @@
       <c r="V25" t="s">
         <v>53</v>
       </c>
-      <c r="X25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -2746,7 +2805,7 @@
         <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L26" t="s">
         <v>47</v>
@@ -2781,16 +2840,13 @@
       <c r="V26" t="s">
         <v>53</v>
       </c>
-      <c r="X26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -2817,7 +2873,7 @@
         <v>34</v>
       </c>
       <c r="K27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s">
         <v>47</v>
@@ -2852,16 +2908,13 @@
       <c r="V27" t="s">
         <v>53</v>
       </c>
-      <c r="X27" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2888,7 +2941,7 @@
         <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s">
         <v>47</v>
@@ -2923,21 +2976,13 @@
       <c r="V28" t="s">
         <v>53</v>
       </c>
-      <c r="X28" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C30" t="s">
         <v>56</v>
@@ -2999,16 +3044,13 @@
       <c r="V30" t="s">
         <v>53</v>
       </c>
-      <c r="X30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B31" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C31" t="s">
         <v>56</v>
@@ -3070,16 +3112,13 @@
       <c r="V31" t="s">
         <v>53</v>
       </c>
-      <c r="X31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C32" t="s">
         <v>56</v>
@@ -3141,16 +3180,13 @@
       <c r="V32" t="s">
         <v>53</v>
       </c>
-      <c r="X32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C33" t="s">
         <v>56</v>
@@ -3212,16 +3248,13 @@
       <c r="V33" t="s">
         <v>53</v>
       </c>
-      <c r="X33" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
@@ -3283,16 +3316,13 @@
       <c r="V34" t="s">
         <v>53</v>
       </c>
-      <c r="X34" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
@@ -3354,16 +3384,13 @@
       <c r="V35" t="s">
         <v>53</v>
       </c>
-      <c r="X35" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B36" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C36" t="s">
         <v>56</v>
@@ -3425,16 +3452,13 @@
       <c r="V36" t="s">
         <v>53</v>
       </c>
-      <c r="X36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B37" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
@@ -3496,16 +3520,13 @@
       <c r="V37" t="s">
         <v>53</v>
       </c>
-      <c r="X37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
@@ -3567,16 +3588,13 @@
       <c r="V38" t="s">
         <v>53</v>
       </c>
-      <c r="X38" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C39" t="s">
         <v>56</v>
@@ -3638,16 +3656,13 @@
       <c r="V39" t="s">
         <v>53</v>
       </c>
-      <c r="X39" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C40" t="s">
         <v>56</v>
@@ -3709,16 +3724,13 @@
       <c r="V40" t="s">
         <v>53</v>
       </c>
-      <c r="X40" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
@@ -3780,16 +3792,13 @@
       <c r="V41" t="s">
         <v>53</v>
       </c>
-      <c r="X41" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C42" t="s">
         <v>56</v>
@@ -3851,16 +3860,13 @@
       <c r="V42" t="s">
         <v>53</v>
       </c>
-      <c r="X42" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
@@ -3922,16 +3928,13 @@
       <c r="V43" t="s">
         <v>53</v>
       </c>
-      <c r="X43" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
@@ -3993,16 +3996,13 @@
       <c r="V44" t="s">
         <v>53</v>
       </c>
-      <c r="X44" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C45" t="s">
         <v>56</v>
@@ -4064,16 +4064,13 @@
       <c r="V45" t="s">
         <v>53</v>
       </c>
-      <c r="X45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B46" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
@@ -4135,16 +4132,13 @@
       <c r="V46" t="s">
         <v>53</v>
       </c>
-      <c r="X46" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C47" t="s">
         <v>56</v>
@@ -4206,16 +4200,13 @@
       <c r="V47" t="s">
         <v>53</v>
       </c>
-      <c r="X47" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C48" t="s">
         <v>56</v>
@@ -4277,16 +4268,13 @@
       <c r="V48" t="s">
         <v>53</v>
       </c>
-      <c r="X48" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -4348,16 +4336,13 @@
       <c r="V49" t="s">
         <v>53</v>
       </c>
-      <c r="X49" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C50" t="s">
         <v>56</v>
@@ -4419,16 +4404,13 @@
       <c r="V50" t="s">
         <v>53</v>
       </c>
-      <c r="X50" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C51" t="s">
         <v>56</v>
@@ -4490,16 +4472,13 @@
       <c r="V51" t="s">
         <v>53</v>
       </c>
-      <c r="X51" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B52" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C52" t="s">
         <v>56</v>
@@ -4561,16 +4540,13 @@
       <c r="V52" t="s">
         <v>53</v>
       </c>
-      <c r="X52" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C53" t="s">
         <v>56</v>
@@ -4632,21 +4608,13 @@
       <c r="V53" t="s">
         <v>53</v>
       </c>
-      <c r="X53" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
@@ -4708,16 +4676,13 @@
       <c r="V55" t="s">
         <v>53</v>
       </c>
-      <c r="X55" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C56" t="s">
         <v>56</v>
@@ -4779,16 +4744,13 @@
       <c r="V56" t="s">
         <v>53</v>
       </c>
-      <c r="X56" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C57" t="s">
         <v>56</v>
@@ -4800,7 +4762,7 @@
         <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G57" t="s">
         <v>47</v>
@@ -4850,16 +4812,13 @@
       <c r="V57" t="s">
         <v>53</v>
       </c>
-      <c r="X57" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
@@ -4871,7 +4830,7 @@
         <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G58" t="s">
         <v>47</v>
@@ -4921,16 +4880,13 @@
       <c r="V58" t="s">
         <v>53</v>
       </c>
-      <c r="X58" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C59" t="s">
         <v>56</v>
@@ -4992,16 +4948,13 @@
       <c r="V59" t="s">
         <v>53</v>
       </c>
-      <c r="X59" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C60" t="s">
         <v>56</v>
@@ -5063,21 +5016,13 @@
       <c r="V60" t="s">
         <v>53</v>
       </c>
-      <c r="X60" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X61" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B62" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C62" t="s">
         <v>48</v>
@@ -5139,16 +5084,13 @@
       <c r="V62" t="s">
         <v>53</v>
       </c>
-      <c r="X62" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C63" t="s">
         <v>48</v>
@@ -5210,16 +5152,13 @@
       <c r="V63" t="s">
         <v>53</v>
       </c>
-      <c r="X63" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C64" t="s">
         <v>48</v>
@@ -5281,16 +5220,13 @@
       <c r="V64" t="s">
         <v>53</v>
       </c>
-      <c r="X64" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B65" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C65" t="s">
         <v>48</v>
@@ -5352,16 +5288,13 @@
       <c r="V65" t="s">
         <v>53</v>
       </c>
-      <c r="X65" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B66" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C66" t="s">
         <v>48</v>
@@ -5423,16 +5356,13 @@
       <c r="V66" t="s">
         <v>53</v>
       </c>
-      <c r="X66" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B67" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C67" t="s">
         <v>48</v>
@@ -5494,21 +5424,13 @@
       <c r="V67" t="s">
         <v>53</v>
       </c>
-      <c r="X67" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X68" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C69" t="s">
         <v>48</v>
@@ -5570,16 +5492,13 @@
       <c r="V69" t="s">
         <v>53</v>
       </c>
-      <c r="X69" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C70" t="s">
         <v>48</v>
@@ -5641,16 +5560,13 @@
       <c r="V70" t="s">
         <v>53</v>
       </c>
-      <c r="X70" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C71" t="s">
         <v>48</v>
@@ -5712,16 +5628,13 @@
       <c r="V71" t="s">
         <v>53</v>
       </c>
-      <c r="X71" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C72" t="s">
         <v>48</v>
@@ -5783,16 +5696,13 @@
       <c r="V72" t="s">
         <v>53</v>
       </c>
-      <c r="X72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B73" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C73" t="s">
         <v>48</v>
@@ -5854,16 +5764,13 @@
       <c r="V73" t="s">
         <v>53</v>
       </c>
-      <c r="X73" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C74" t="s">
         <v>48</v>
@@ -5925,21 +5832,13 @@
       <c r="V74" t="s">
         <v>53</v>
       </c>
-      <c r="X74" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X75" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B76" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C76" t="s">
         <v>48</v>
@@ -6001,16 +5900,13 @@
       <c r="V76" t="s">
         <v>53</v>
       </c>
-      <c r="X76" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B77" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C77" t="s">
         <v>48</v>
@@ -6072,16 +5968,13 @@
       <c r="V77" t="s">
         <v>53</v>
       </c>
-      <c r="X77" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B78" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C78" t="s">
         <v>48</v>
@@ -6143,16 +6036,13 @@
       <c r="V78" t="s">
         <v>53</v>
       </c>
-      <c r="X78" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B79" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C79" t="s">
         <v>48</v>
@@ -6214,16 +6104,13 @@
       <c r="V79" t="s">
         <v>53</v>
       </c>
-      <c r="X79" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B80" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C80" t="s">
         <v>48</v>
@@ -6285,16 +6172,13 @@
       <c r="V80" t="s">
         <v>53</v>
       </c>
-      <c r="X80" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C81" t="s">
         <v>48</v>
@@ -6356,21 +6240,13 @@
       <c r="V81" t="s">
         <v>53</v>
       </c>
-      <c r="X81" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X82" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B83" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C83" t="s">
         <v>48</v>
@@ -6382,7 +6258,7 @@
         <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G83" t="s">
         <v>47</v>
@@ -6432,16 +6308,13 @@
       <c r="V83" t="s">
         <v>53</v>
       </c>
-      <c r="X83" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B84" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C84" t="s">
         <v>48</v>
@@ -6453,7 +6326,7 @@
         <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G84" t="s">
         <v>47</v>
@@ -6503,16 +6376,13 @@
       <c r="V84" t="s">
         <v>53</v>
       </c>
-      <c r="X84" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B85" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C85" t="s">
         <v>48</v>
@@ -6524,7 +6394,7 @@
         <v>47</v>
       </c>
       <c r="F85" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G85" t="s">
         <v>47</v>
@@ -6574,16 +6444,13 @@
       <c r="V85" t="s">
         <v>53</v>
       </c>
-      <c r="X85" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C86" t="s">
         <v>48</v>
@@ -6595,7 +6462,7 @@
         <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G86" t="s">
         <v>47</v>
@@ -6645,16 +6512,13 @@
       <c r="V86" t="s">
         <v>53</v>
       </c>
-      <c r="X86" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B87" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C87" t="s">
         <v>48</v>
@@ -6666,7 +6530,7 @@
         <v>47</v>
       </c>
       <c r="F87" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G87" t="s">
         <v>47</v>
@@ -6716,16 +6580,13 @@
       <c r="V87" t="s">
         <v>53</v>
       </c>
-      <c r="X87" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C88" t="s">
         <v>48</v>
@@ -6737,7 +6598,7 @@
         <v>47</v>
       </c>
       <c r="F88" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G88" t="s">
         <v>47</v>
@@ -6787,21 +6648,13 @@
       <c r="V88" t="s">
         <v>53</v>
       </c>
-      <c r="X88" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X89" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -6863,16 +6716,13 @@
       <c r="V90" t="s">
         <v>53</v>
       </c>
-      <c r="X90" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B91" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -6934,16 +6784,13 @@
       <c r="V91" t="s">
         <v>53</v>
       </c>
-      <c r="X91" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B92" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -6970,7 +6817,7 @@
         <v>34</v>
       </c>
       <c r="K92" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L92" t="s">
         <v>47</v>
@@ -7005,16 +6852,13 @@
       <c r="V92" t="s">
         <v>53</v>
       </c>
-      <c r="X92" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C93" t="s">
         <v>56</v>
@@ -7076,16 +6920,13 @@
       <c r="V93" t="s">
         <v>53</v>
       </c>
-      <c r="X93" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B94" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C94" t="s">
         <v>56</v>
@@ -7147,16 +6988,13 @@
       <c r="V94" t="s">
         <v>53</v>
       </c>
-      <c r="X94" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B95" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C95" t="s">
         <v>56</v>
@@ -7218,16 +7056,13 @@
       <c r="V95" t="s">
         <v>53</v>
       </c>
-      <c r="X95" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B96" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C96" t="s">
         <v>56</v>
@@ -7289,16 +7124,13 @@
       <c r="V96" t="s">
         <v>53</v>
       </c>
-      <c r="X96" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B97" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C97" t="s">
         <v>48</v>
@@ -7360,16 +7192,13 @@
       <c r="V97" t="s">
         <v>53</v>
       </c>
-      <c r="X97" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B98" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C98" t="s">
         <v>48</v>
@@ -7431,16 +7260,13 @@
       <c r="V98" t="s">
         <v>53</v>
       </c>
-      <c r="X98" t="s">
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
-        <v>233</v>
-      </c>
       <c r="B99" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C99" t="s">
         <v>48</v>
@@ -7502,16 +7328,13 @@
       <c r="V99" t="s">
         <v>53</v>
       </c>
-      <c r="X99" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C100" t="s">
         <v>48</v>
@@ -7523,7 +7346,7 @@
         <v>47</v>
       </c>
       <c r="F100" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G100" t="s">
         <v>47</v>
@@ -7573,21 +7396,13 @@
       <c r="V100" t="s">
         <v>53</v>
       </c>
-      <c r="X100" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X101" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B102" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C102" t="s">
         <v>48</v>
@@ -7599,7 +7414,7 @@
         <v>47</v>
       </c>
       <c r="F102" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G102" t="s">
         <v>47</v>
@@ -7649,16 +7464,13 @@
       <c r="V102" t="s">
         <v>53</v>
       </c>
-      <c r="X102" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C103" t="s">
         <v>48</v>
@@ -7670,7 +7482,7 @@
         <v>47</v>
       </c>
       <c r="F103" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G103" t="s">
         <v>47</v>
@@ -7720,21 +7532,13 @@
       <c r="V103" t="s">
         <v>53</v>
       </c>
-      <c r="X103" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X104" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C105" t="s">
         <v>56</v>
@@ -7796,16 +7600,13 @@
       <c r="V105" t="s">
         <v>53</v>
       </c>
-      <c r="X105" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>84</v>
       </c>
       <c r="B106" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C106" t="s">
         <v>56</v>
@@ -7867,16 +7668,13 @@
       <c r="V106" t="s">
         <v>53</v>
       </c>
-      <c r="X106" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B107" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C107" t="s">
         <v>56</v>
@@ -7903,7 +7701,7 @@
         <v>36</v>
       </c>
       <c r="K107" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L107" t="s">
         <v>47</v>
@@ -7938,16 +7736,13 @@
       <c r="V107" t="s">
         <v>53</v>
       </c>
-      <c r="X107" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C108" t="s">
         <v>48</v>
@@ -7974,7 +7769,7 @@
         <v>34</v>
       </c>
       <c r="K108" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L108" t="s">
         <v>47</v>
@@ -8009,16 +7804,13 @@
       <c r="V108" t="s">
         <v>53</v>
       </c>
-      <c r="X108" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C109" t="s">
         <v>56</v>
@@ -8080,16 +7872,13 @@
       <c r="V109" t="s">
         <v>53</v>
       </c>
-      <c r="X109" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C110" t="s">
         <v>56</v>
@@ -8151,16 +7940,13 @@
       <c r="V110" t="s">
         <v>53</v>
       </c>
-      <c r="X110" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B111" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C111" t="s">
         <v>56</v>
@@ -8187,7 +7973,7 @@
         <v>36</v>
       </c>
       <c r="K111" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L111" t="s">
         <v>47</v>
@@ -8222,16 +8008,13 @@
       <c r="V111" t="s">
         <v>53</v>
       </c>
-      <c r="X111" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B112" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C112" t="s">
         <v>48</v>
@@ -8258,7 +8041,7 @@
         <v>34</v>
       </c>
       <c r="K112" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L112" t="s">
         <v>47</v>
@@ -8293,21 +8076,13 @@
       <c r="V112" t="s">
         <v>53</v>
       </c>
-      <c r="X112" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X113" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C114" t="s">
         <v>48</v>
@@ -8369,16 +8144,13 @@
       <c r="V114" t="s">
         <v>53</v>
       </c>
-      <c r="X114" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>37</v>
       </c>
       <c r="B115" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C115" t="s">
         <v>48</v>
@@ -8390,7 +8162,7 @@
         <v>47</v>
       </c>
       <c r="F115" t="s">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="G115" t="s">
         <v>21</v>
@@ -8440,16 +8212,13 @@
       <c r="V115" t="s">
         <v>53</v>
       </c>
-      <c r="X115" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C116" t="s">
         <v>48</v>
@@ -8461,7 +8230,7 @@
         <v>2</v>
       </c>
       <c r="F116" t="s">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="G116" t="s">
         <v>21</v>
@@ -8511,16 +8280,13 @@
       <c r="V116" t="s">
         <v>53</v>
       </c>
-      <c r="X116" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C117" t="s">
         <v>48</v>
@@ -8582,16 +8348,13 @@
       <c r="V117" t="s">
         <v>53</v>
       </c>
-      <c r="X117" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C118" t="s">
         <v>48</v>
@@ -8653,16 +8416,13 @@
       <c r="V118" t="s">
         <v>53</v>
       </c>
-      <c r="X118" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C119" t="s">
         <v>48</v>
@@ -8674,7 +8434,7 @@
         <v>47</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="G119" t="s">
         <v>21</v>
@@ -8724,16 +8484,13 @@
       <c r="V119" t="s">
         <v>53</v>
       </c>
-      <c r="X119" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C120" t="s">
         <v>48</v>
@@ -8745,7 +8502,7 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="G120" t="s">
         <v>21</v>
@@ -8795,16 +8552,13 @@
       <c r="V120" t="s">
         <v>53</v>
       </c>
-      <c r="X120" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C121" t="s">
         <v>48</v>
@@ -8866,21 +8620,13 @@
       <c r="V121" t="s">
         <v>53</v>
       </c>
-      <c r="X121" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X122" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>81</v>
       </c>
       <c r="B123" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C123" t="s">
         <v>47</v>
@@ -8942,16 +8688,13 @@
       <c r="V123" t="s">
         <v>53</v>
       </c>
-      <c r="X123" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B124" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C124" t="s">
         <v>47</v>
@@ -9013,16 +8756,13 @@
       <c r="V124" t="s">
         <v>53</v>
       </c>
-      <c r="X124" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>82</v>
       </c>
       <c r="B125" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C125" t="s">
         <v>47</v>
@@ -9084,16 +8824,8 @@
       <c r="V125" t="s">
         <v>83</v>
       </c>
-      <c r="X125" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X126" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -9160,11 +8892,8 @@
       <c r="V127" t="s">
         <v>53</v>
       </c>
-      <c r="X127" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>86</v>
       </c>
@@ -9231,11 +8960,8 @@
       <c r="V128" t="s">
         <v>53</v>
       </c>
-      <c r="X128" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -9302,11 +9028,8 @@
       <c r="V129" t="s">
         <v>53</v>
       </c>
-      <c r="X129" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>88</v>
       </c>
@@ -9373,13 +9096,10 @@
       <c r="V130" t="s">
         <v>53</v>
       </c>
-      <c r="X130" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B131" t="s">
         <v>29</v>
@@ -9444,11 +9164,8 @@
       <c r="V131" t="s">
         <v>53</v>
       </c>
-      <c r="X131" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -9515,13 +9232,10 @@
       <c r="V132" t="s">
         <v>53</v>
       </c>
-      <c r="X132" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B133" t="s">
         <v>29</v>
@@ -9586,11 +9300,8 @@
       <c r="V133" t="s">
         <v>53</v>
       </c>
-      <c r="X133" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>27</v>
       </c>
@@ -9657,11 +9368,8 @@
       <c r="V134" t="s">
         <v>53</v>
       </c>
-      <c r="X134" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>93</v>
       </c>
@@ -9728,11 +9436,8 @@
       <c r="V135" t="s">
         <v>53</v>
       </c>
-      <c r="X135" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>28</v>
       </c>
@@ -9799,11 +9504,8 @@
       <c r="V136" t="s">
         <v>53</v>
       </c>
-      <c r="X136" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>94</v>
       </c>
@@ -9870,16 +9572,8 @@
       <c r="V137" t="s">
         <v>53</v>
       </c>
-      <c r="X137" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X138" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>95</v>
       </c>
@@ -9946,11 +9640,8 @@
       <c r="V139" t="s">
         <v>53</v>
       </c>
-      <c r="X139" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>96</v>
       </c>
@@ -10017,11 +9708,8 @@
       <c r="V140" t="s">
         <v>53</v>
       </c>
-      <c r="X140" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>97</v>
       </c>
@@ -10088,11 +9776,8 @@
       <c r="V141" t="s">
         <v>53</v>
       </c>
-      <c r="X141" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>98</v>
       </c>
@@ -10159,13 +9844,10 @@
       <c r="V142" t="s">
         <v>53</v>
       </c>
-      <c r="X142" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B143" t="s">
         <v>29</v>
@@ -10230,11 +9912,8 @@
       <c r="V143" t="s">
         <v>53</v>
       </c>
-      <c r="X143" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>99</v>
       </c>
@@ -10301,13 +9980,10 @@
       <c r="V144" t="s">
         <v>53</v>
       </c>
-      <c r="X144" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B145" t="s">
         <v>29</v>
@@ -10372,11 +10048,8 @@
       <c r="V145" t="s">
         <v>53</v>
       </c>
-      <c r="X145" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>100</v>
       </c>
@@ -10443,11 +10116,8 @@
       <c r="V146" t="s">
         <v>53</v>
       </c>
-      <c r="X146" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>101</v>
       </c>
@@ -10514,11 +10184,8 @@
       <c r="V147" t="s">
         <v>53</v>
       </c>
-      <c r="X147" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>102</v>
       </c>
@@ -10585,11 +10252,8 @@
       <c r="V148" t="s">
         <v>53</v>
       </c>
-      <c r="X148" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>103</v>
       </c>
@@ -10656,18 +10320,10 @@
       <c r="V149" t="s">
         <v>53</v>
       </c>
-      <c r="X149" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X150" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B151" t="s">
         <v>29</v>
@@ -10732,13 +10388,10 @@
       <c r="V151" t="s">
         <v>53</v>
       </c>
-      <c r="X151" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B152" t="s">
         <v>29</v>
@@ -10803,13 +10456,10 @@
       <c r="V152" t="s">
         <v>53</v>
       </c>
-      <c r="X152" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B153" t="s">
         <v>29</v>
@@ -10874,13 +10524,10 @@
       <c r="V153" t="s">
         <v>53</v>
       </c>
-      <c r="X153" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B154" t="s">
         <v>29</v>
@@ -10945,13 +10592,10 @@
       <c r="V154" t="s">
         <v>53</v>
       </c>
-      <c r="X154" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B155" t="s">
         <v>29</v>
@@ -11016,13 +10660,10 @@
       <c r="V155" t="s">
         <v>53</v>
       </c>
-      <c r="X155" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B156" t="s">
         <v>29</v>
@@ -11087,13 +10728,10 @@
       <c r="V156" t="s">
         <v>53</v>
       </c>
-      <c r="X156" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B157" t="s">
         <v>29</v>
@@ -11158,13 +10796,10 @@
       <c r="V157" t="s">
         <v>53</v>
       </c>
-      <c r="X157" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B158" t="s">
         <v>29</v>
@@ -11229,13 +10864,10 @@
       <c r="V158" t="s">
         <v>53</v>
       </c>
-      <c r="X158" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B159" t="s">
         <v>29</v>
@@ -11300,18 +10932,10 @@
       <c r="V159" t="s">
         <v>53</v>
       </c>
-      <c r="X159" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X160" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B161" t="s">
         <v>29</v>
@@ -11376,13 +11000,10 @@
       <c r="V161" t="s">
         <v>53</v>
       </c>
-      <c r="X161" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B162" t="s">
         <v>29</v>
@@ -11447,13 +11068,10 @@
       <c r="V162" t="s">
         <v>53</v>
       </c>
-      <c r="X162" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B163" t="s">
         <v>29</v>
@@ -11518,13 +11136,10 @@
       <c r="V163" t="s">
         <v>53</v>
       </c>
-      <c r="X163" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B164" t="s">
         <v>29</v>
@@ -11589,13 +11204,10 @@
       <c r="V164" t="s">
         <v>53</v>
       </c>
-      <c r="X164" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B165" t="s">
         <v>29</v>
@@ -11660,13 +11272,10 @@
       <c r="V165" t="s">
         <v>53</v>
       </c>
-      <c r="X165" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B166" t="s">
         <v>29</v>
@@ -11731,13 +11340,10 @@
       <c r="V166" t="s">
         <v>53</v>
       </c>
-      <c r="X166" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B167" t="s">
         <v>29</v>
@@ -11802,13 +11408,10 @@
       <c r="V167" t="s">
         <v>53</v>
       </c>
-      <c r="X167" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B168" t="s">
         <v>29</v>
@@ -11873,13 +11476,10 @@
       <c r="V168" t="s">
         <v>53</v>
       </c>
-      <c r="X168" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B169" t="s">
         <v>29</v>
@@ -11944,18 +11544,10 @@
       <c r="V169" t="s">
         <v>53</v>
       </c>
-      <c r="X169" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="X170" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B171" t="s">
         <v>29</v>
@@ -12020,13 +11612,10 @@
       <c r="V171" t="s">
         <v>53</v>
       </c>
-      <c r="X171" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B172" t="s">
         <v>29</v>
@@ -12091,13 +11680,10 @@
       <c r="V172" t="s">
         <v>53</v>
       </c>
-      <c r="X172" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B173" t="s">
         <v>29</v>
@@ -12162,13 +11748,10 @@
       <c r="V173" t="s">
         <v>53</v>
       </c>
-      <c r="X173" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B174" t="s">
         <v>29</v>
@@ -12233,13 +11816,10 @@
       <c r="V174" t="s">
         <v>53</v>
       </c>
-      <c r="X174" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B175" t="s">
         <v>29</v>
@@ -12304,13 +11884,10 @@
       <c r="V175" t="s">
         <v>53</v>
       </c>
-      <c r="X175" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B176" t="s">
         <v>29</v>
@@ -12375,8 +11952,3133 @@
       <c r="V176" t="s">
         <v>53</v>
       </c>
-      <c r="X176" t="s">
-        <v>235</v>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>236</v>
+      </c>
+      <c r="B178" t="s">
+        <v>29</v>
+      </c>
+      <c r="C178" t="s">
+        <v>48</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2</v>
+      </c>
+      <c r="E178" t="s">
+        <v>56</v>
+      </c>
+      <c r="F178" t="s">
+        <v>47</v>
+      </c>
+      <c r="G178" t="s">
+        <v>33</v>
+      </c>
+      <c r="H178" t="s">
+        <v>57</v>
+      </c>
+      <c r="I178" t="s">
+        <v>66</v>
+      </c>
+      <c r="J178" t="s">
+        <v>34</v>
+      </c>
+      <c r="K178" t="s">
+        <v>30</v>
+      </c>
+      <c r="L178" t="s">
+        <v>79</v>
+      </c>
+      <c r="M178" t="s">
+        <v>29</v>
+      </c>
+      <c r="N178" t="s">
+        <v>9</v>
+      </c>
+      <c r="O178" t="s">
+        <v>22</v>
+      </c>
+      <c r="P178" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>44</v>
+      </c>
+      <c r="R178" t="s">
+        <v>92</v>
+      </c>
+      <c r="S178" t="s">
+        <v>17</v>
+      </c>
+      <c r="T178" t="s">
+        <v>47</v>
+      </c>
+      <c r="U178" t="s">
+        <v>52</v>
+      </c>
+      <c r="V178" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>237</v>
+      </c>
+      <c r="B179" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179" t="s">
+        <v>48</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2</v>
+      </c>
+      <c r="E179" t="s">
+        <v>56</v>
+      </c>
+      <c r="F179" t="s">
+        <v>47</v>
+      </c>
+      <c r="G179" t="s">
+        <v>33</v>
+      </c>
+      <c r="H179" t="s">
+        <v>57</v>
+      </c>
+      <c r="I179" t="s">
+        <v>66</v>
+      </c>
+      <c r="J179" t="s">
+        <v>34</v>
+      </c>
+      <c r="K179" t="s">
+        <v>30</v>
+      </c>
+      <c r="L179" t="s">
+        <v>87</v>
+      </c>
+      <c r="M179" t="s">
+        <v>29</v>
+      </c>
+      <c r="N179" t="s">
+        <v>9</v>
+      </c>
+      <c r="O179" t="s">
+        <v>22</v>
+      </c>
+      <c r="P179" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>44</v>
+      </c>
+      <c r="R179" t="s">
+        <v>92</v>
+      </c>
+      <c r="S179" t="s">
+        <v>17</v>
+      </c>
+      <c r="T179" t="s">
+        <v>47</v>
+      </c>
+      <c r="U179" t="s">
+        <v>52</v>
+      </c>
+      <c r="V179" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>238</v>
+      </c>
+      <c r="B180" t="s">
+        <v>29</v>
+      </c>
+      <c r="C180" t="s">
+        <v>48</v>
+      </c>
+      <c r="D180" t="s">
+        <v>2</v>
+      </c>
+      <c r="E180" t="s">
+        <v>56</v>
+      </c>
+      <c r="F180" t="s">
+        <v>47</v>
+      </c>
+      <c r="G180" t="s">
+        <v>33</v>
+      </c>
+      <c r="H180" t="s">
+        <v>57</v>
+      </c>
+      <c r="I180" t="s">
+        <v>66</v>
+      </c>
+      <c r="J180" t="s">
+        <v>34</v>
+      </c>
+      <c r="K180" t="s">
+        <v>31</v>
+      </c>
+      <c r="L180" t="s">
+        <v>79</v>
+      </c>
+      <c r="M180" t="s">
+        <v>29</v>
+      </c>
+      <c r="N180" t="s">
+        <v>9</v>
+      </c>
+      <c r="O180" t="s">
+        <v>22</v>
+      </c>
+      <c r="P180" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>44</v>
+      </c>
+      <c r="R180" t="s">
+        <v>92</v>
+      </c>
+      <c r="S180" t="s">
+        <v>17</v>
+      </c>
+      <c r="T180" t="s">
+        <v>47</v>
+      </c>
+      <c r="U180" t="s">
+        <v>52</v>
+      </c>
+      <c r="V180" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>239</v>
+      </c>
+      <c r="B181" t="s">
+        <v>29</v>
+      </c>
+      <c r="C181" t="s">
+        <v>48</v>
+      </c>
+      <c r="D181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E181" t="s">
+        <v>56</v>
+      </c>
+      <c r="F181" t="s">
+        <v>47</v>
+      </c>
+      <c r="G181" t="s">
+        <v>33</v>
+      </c>
+      <c r="H181" t="s">
+        <v>57</v>
+      </c>
+      <c r="I181" t="s">
+        <v>66</v>
+      </c>
+      <c r="J181" t="s">
+        <v>34</v>
+      </c>
+      <c r="K181" t="s">
+        <v>31</v>
+      </c>
+      <c r="L181" t="s">
+        <v>87</v>
+      </c>
+      <c r="M181" t="s">
+        <v>29</v>
+      </c>
+      <c r="N181" t="s">
+        <v>9</v>
+      </c>
+      <c r="O181" t="s">
+        <v>22</v>
+      </c>
+      <c r="P181" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>44</v>
+      </c>
+      <c r="R181" t="s">
+        <v>92</v>
+      </c>
+      <c r="S181" t="s">
+        <v>17</v>
+      </c>
+      <c r="T181" t="s">
+        <v>47</v>
+      </c>
+      <c r="U181" t="s">
+        <v>52</v>
+      </c>
+      <c r="V181" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>240</v>
+      </c>
+      <c r="B182" t="s">
+        <v>29</v>
+      </c>
+      <c r="C182" t="s">
+        <v>48</v>
+      </c>
+      <c r="D182" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" t="s">
+        <v>47</v>
+      </c>
+      <c r="F182" t="s">
+        <v>47</v>
+      </c>
+      <c r="G182" t="s">
+        <v>33</v>
+      </c>
+      <c r="H182" t="s">
+        <v>47</v>
+      </c>
+      <c r="I182" t="s">
+        <v>47</v>
+      </c>
+      <c r="J182" t="s">
+        <v>34</v>
+      </c>
+      <c r="K182" t="s">
+        <v>32</v>
+      </c>
+      <c r="L182" t="s">
+        <v>87</v>
+      </c>
+      <c r="M182" t="s">
+        <v>29</v>
+      </c>
+      <c r="N182" t="s">
+        <v>9</v>
+      </c>
+      <c r="O182" t="s">
+        <v>22</v>
+      </c>
+      <c r="P182" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>44</v>
+      </c>
+      <c r="R182" t="s">
+        <v>92</v>
+      </c>
+      <c r="S182" t="s">
+        <v>17</v>
+      </c>
+      <c r="T182" t="s">
+        <v>47</v>
+      </c>
+      <c r="U182" t="s">
+        <v>52</v>
+      </c>
+      <c r="V182" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>241</v>
+      </c>
+      <c r="B183" t="s">
+        <v>29</v>
+      </c>
+      <c r="C183" t="s">
+        <v>48</v>
+      </c>
+      <c r="D183" t="s">
+        <v>2</v>
+      </c>
+      <c r="E183" t="s">
+        <v>47</v>
+      </c>
+      <c r="F183" t="s">
+        <v>47</v>
+      </c>
+      <c r="G183" t="s">
+        <v>33</v>
+      </c>
+      <c r="H183" t="s">
+        <v>47</v>
+      </c>
+      <c r="I183" t="s">
+        <v>47</v>
+      </c>
+      <c r="J183" t="s">
+        <v>35</v>
+      </c>
+      <c r="K183" t="s">
+        <v>32</v>
+      </c>
+      <c r="L183" t="s">
+        <v>87</v>
+      </c>
+      <c r="M183" t="s">
+        <v>29</v>
+      </c>
+      <c r="N183" t="s">
+        <v>9</v>
+      </c>
+      <c r="O183" t="s">
+        <v>22</v>
+      </c>
+      <c r="P183" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>44</v>
+      </c>
+      <c r="R183" t="s">
+        <v>92</v>
+      </c>
+      <c r="S183" t="s">
+        <v>17</v>
+      </c>
+      <c r="T183" t="s">
+        <v>47</v>
+      </c>
+      <c r="U183" t="s">
+        <v>52</v>
+      </c>
+      <c r="V183" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>242</v>
+      </c>
+      <c r="B184" t="s">
+        <v>29</v>
+      </c>
+      <c r="C184" t="s">
+        <v>48</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2</v>
+      </c>
+      <c r="E184" t="s">
+        <v>47</v>
+      </c>
+      <c r="F184" t="s">
+        <v>47</v>
+      </c>
+      <c r="G184" t="s">
+        <v>33</v>
+      </c>
+      <c r="H184" t="s">
+        <v>47</v>
+      </c>
+      <c r="I184" t="s">
+        <v>47</v>
+      </c>
+      <c r="J184" t="s">
+        <v>36</v>
+      </c>
+      <c r="K184" t="s">
+        <v>32</v>
+      </c>
+      <c r="L184" t="s">
+        <v>87</v>
+      </c>
+      <c r="M184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N184" t="s">
+        <v>9</v>
+      </c>
+      <c r="O184" t="s">
+        <v>22</v>
+      </c>
+      <c r="P184" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>44</v>
+      </c>
+      <c r="R184" t="s">
+        <v>92</v>
+      </c>
+      <c r="S184" t="s">
+        <v>17</v>
+      </c>
+      <c r="T184" t="s">
+        <v>47</v>
+      </c>
+      <c r="U184" t="s">
+        <v>52</v>
+      </c>
+      <c r="V184" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>243</v>
+      </c>
+      <c r="B185" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185" t="s">
+        <v>48</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2</v>
+      </c>
+      <c r="E185" t="s">
+        <v>47</v>
+      </c>
+      <c r="F185" t="s">
+        <v>47</v>
+      </c>
+      <c r="G185" t="s">
+        <v>21</v>
+      </c>
+      <c r="H185" t="s">
+        <v>47</v>
+      </c>
+      <c r="I185" t="s">
+        <v>47</v>
+      </c>
+      <c r="J185" t="s">
+        <v>36</v>
+      </c>
+      <c r="K185" t="s">
+        <v>31</v>
+      </c>
+      <c r="L185" t="s">
+        <v>79</v>
+      </c>
+      <c r="M185" t="s">
+        <v>29</v>
+      </c>
+      <c r="N185" t="s">
+        <v>9</v>
+      </c>
+      <c r="O185" t="s">
+        <v>22</v>
+      </c>
+      <c r="P185" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>44</v>
+      </c>
+      <c r="R185" t="s">
+        <v>92</v>
+      </c>
+      <c r="S185" t="s">
+        <v>17</v>
+      </c>
+      <c r="T185" t="s">
+        <v>47</v>
+      </c>
+      <c r="U185" t="s">
+        <v>52</v>
+      </c>
+      <c r="V185" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>244</v>
+      </c>
+      <c r="B186" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186" t="s">
+        <v>48</v>
+      </c>
+      <c r="D186" t="s">
+        <v>2</v>
+      </c>
+      <c r="E186" t="s">
+        <v>47</v>
+      </c>
+      <c r="F186" t="s">
+        <v>47</v>
+      </c>
+      <c r="G186" t="s">
+        <v>21</v>
+      </c>
+      <c r="H186" t="s">
+        <v>47</v>
+      </c>
+      <c r="I186" t="s">
+        <v>47</v>
+      </c>
+      <c r="J186" t="s">
+        <v>36</v>
+      </c>
+      <c r="K186" t="s">
+        <v>31</v>
+      </c>
+      <c r="L186" t="s">
+        <v>87</v>
+      </c>
+      <c r="M186" t="s">
+        <v>29</v>
+      </c>
+      <c r="N186" t="s">
+        <v>9</v>
+      </c>
+      <c r="O186" t="s">
+        <v>22</v>
+      </c>
+      <c r="P186" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>44</v>
+      </c>
+      <c r="R186" t="s">
+        <v>92</v>
+      </c>
+      <c r="S186" t="s">
+        <v>17</v>
+      </c>
+      <c r="T186" t="s">
+        <v>47</v>
+      </c>
+      <c r="U186" t="s">
+        <v>52</v>
+      </c>
+      <c r="V186" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>245</v>
+      </c>
+      <c r="B187" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187" t="s">
+        <v>48</v>
+      </c>
+      <c r="D187" t="s">
+        <v>2</v>
+      </c>
+      <c r="E187" t="s">
+        <v>47</v>
+      </c>
+      <c r="F187" t="s">
+        <v>47</v>
+      </c>
+      <c r="G187" t="s">
+        <v>21</v>
+      </c>
+      <c r="H187" t="s">
+        <v>47</v>
+      </c>
+      <c r="I187" t="s">
+        <v>47</v>
+      </c>
+      <c r="J187" t="s">
+        <v>36</v>
+      </c>
+      <c r="K187" t="s">
+        <v>30</v>
+      </c>
+      <c r="L187" t="s">
+        <v>79</v>
+      </c>
+      <c r="M187" t="s">
+        <v>29</v>
+      </c>
+      <c r="N187" t="s">
+        <v>9</v>
+      </c>
+      <c r="O187" t="s">
+        <v>22</v>
+      </c>
+      <c r="P187" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>44</v>
+      </c>
+      <c r="R187" t="s">
+        <v>92</v>
+      </c>
+      <c r="S187" t="s">
+        <v>17</v>
+      </c>
+      <c r="T187" t="s">
+        <v>47</v>
+      </c>
+      <c r="U187" t="s">
+        <v>52</v>
+      </c>
+      <c r="V187" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>246</v>
+      </c>
+      <c r="B188" t="s">
+        <v>29</v>
+      </c>
+      <c r="C188" t="s">
+        <v>48</v>
+      </c>
+      <c r="D188" t="s">
+        <v>2</v>
+      </c>
+      <c r="E188" t="s">
+        <v>47</v>
+      </c>
+      <c r="F188" t="s">
+        <v>47</v>
+      </c>
+      <c r="G188" t="s">
+        <v>21</v>
+      </c>
+      <c r="H188" t="s">
+        <v>47</v>
+      </c>
+      <c r="I188" t="s">
+        <v>47</v>
+      </c>
+      <c r="J188" t="s">
+        <v>36</v>
+      </c>
+      <c r="K188" t="s">
+        <v>30</v>
+      </c>
+      <c r="L188" t="s">
+        <v>87</v>
+      </c>
+      <c r="M188" t="s">
+        <v>29</v>
+      </c>
+      <c r="N188" t="s">
+        <v>9</v>
+      </c>
+      <c r="O188" t="s">
+        <v>22</v>
+      </c>
+      <c r="P188" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>44</v>
+      </c>
+      <c r="R188" t="s">
+        <v>92</v>
+      </c>
+      <c r="S188" t="s">
+        <v>17</v>
+      </c>
+      <c r="T188" t="s">
+        <v>47</v>
+      </c>
+      <c r="U188" t="s">
+        <v>52</v>
+      </c>
+      <c r="V188" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>247</v>
+      </c>
+      <c r="B190" t="s">
+        <v>29</v>
+      </c>
+      <c r="C190" t="s">
+        <v>48</v>
+      </c>
+      <c r="D190" t="s">
+        <v>2</v>
+      </c>
+      <c r="E190" t="s">
+        <v>56</v>
+      </c>
+      <c r="F190" t="s">
+        <v>47</v>
+      </c>
+      <c r="G190" t="s">
+        <v>33</v>
+      </c>
+      <c r="H190" t="s">
+        <v>57</v>
+      </c>
+      <c r="I190" t="s">
+        <v>66</v>
+      </c>
+      <c r="J190" t="s">
+        <v>34</v>
+      </c>
+      <c r="K190" t="s">
+        <v>30</v>
+      </c>
+      <c r="L190" t="s">
+        <v>79</v>
+      </c>
+      <c r="M190" t="s">
+        <v>29</v>
+      </c>
+      <c r="N190" t="s">
+        <v>9</v>
+      </c>
+      <c r="O190" t="s">
+        <v>22</v>
+      </c>
+      <c r="P190" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>44</v>
+      </c>
+      <c r="R190" t="s">
+        <v>92</v>
+      </c>
+      <c r="S190" t="s">
+        <v>18</v>
+      </c>
+      <c r="T190" t="s">
+        <v>47</v>
+      </c>
+      <c r="U190" t="s">
+        <v>52</v>
+      </c>
+      <c r="V190" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>248</v>
+      </c>
+      <c r="B191" t="s">
+        <v>29</v>
+      </c>
+      <c r="C191" t="s">
+        <v>48</v>
+      </c>
+      <c r="D191" t="s">
+        <v>2</v>
+      </c>
+      <c r="E191" t="s">
+        <v>56</v>
+      </c>
+      <c r="F191" t="s">
+        <v>47</v>
+      </c>
+      <c r="G191" t="s">
+        <v>33</v>
+      </c>
+      <c r="H191" t="s">
+        <v>57</v>
+      </c>
+      <c r="I191" t="s">
+        <v>66</v>
+      </c>
+      <c r="J191" t="s">
+        <v>34</v>
+      </c>
+      <c r="K191" t="s">
+        <v>30</v>
+      </c>
+      <c r="L191" t="s">
+        <v>87</v>
+      </c>
+      <c r="M191" t="s">
+        <v>29</v>
+      </c>
+      <c r="N191" t="s">
+        <v>9</v>
+      </c>
+      <c r="O191" t="s">
+        <v>22</v>
+      </c>
+      <c r="P191" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>44</v>
+      </c>
+      <c r="R191" t="s">
+        <v>92</v>
+      </c>
+      <c r="S191" t="s">
+        <v>18</v>
+      </c>
+      <c r="T191" t="s">
+        <v>47</v>
+      </c>
+      <c r="U191" t="s">
+        <v>52</v>
+      </c>
+      <c r="V191" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>249</v>
+      </c>
+      <c r="B192" t="s">
+        <v>29</v>
+      </c>
+      <c r="C192" t="s">
+        <v>48</v>
+      </c>
+      <c r="D192" t="s">
+        <v>2</v>
+      </c>
+      <c r="E192" t="s">
+        <v>56</v>
+      </c>
+      <c r="F192" t="s">
+        <v>47</v>
+      </c>
+      <c r="G192" t="s">
+        <v>33</v>
+      </c>
+      <c r="H192" t="s">
+        <v>57</v>
+      </c>
+      <c r="I192" t="s">
+        <v>66</v>
+      </c>
+      <c r="J192" t="s">
+        <v>34</v>
+      </c>
+      <c r="K192" t="s">
+        <v>31</v>
+      </c>
+      <c r="L192" t="s">
+        <v>79</v>
+      </c>
+      <c r="M192" t="s">
+        <v>29</v>
+      </c>
+      <c r="N192" t="s">
+        <v>9</v>
+      </c>
+      <c r="O192" t="s">
+        <v>22</v>
+      </c>
+      <c r="P192" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>44</v>
+      </c>
+      <c r="R192" t="s">
+        <v>92</v>
+      </c>
+      <c r="S192" t="s">
+        <v>18</v>
+      </c>
+      <c r="T192" t="s">
+        <v>47</v>
+      </c>
+      <c r="U192" t="s">
+        <v>52</v>
+      </c>
+      <c r="V192" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>250</v>
+      </c>
+      <c r="B193" t="s">
+        <v>29</v>
+      </c>
+      <c r="C193" t="s">
+        <v>48</v>
+      </c>
+      <c r="D193" t="s">
+        <v>2</v>
+      </c>
+      <c r="E193" t="s">
+        <v>56</v>
+      </c>
+      <c r="F193" t="s">
+        <v>47</v>
+      </c>
+      <c r="G193" t="s">
+        <v>33</v>
+      </c>
+      <c r="H193" t="s">
+        <v>57</v>
+      </c>
+      <c r="I193" t="s">
+        <v>66</v>
+      </c>
+      <c r="J193" t="s">
+        <v>34</v>
+      </c>
+      <c r="K193" t="s">
+        <v>31</v>
+      </c>
+      <c r="L193" t="s">
+        <v>87</v>
+      </c>
+      <c r="M193" t="s">
+        <v>29</v>
+      </c>
+      <c r="N193" t="s">
+        <v>9</v>
+      </c>
+      <c r="O193" t="s">
+        <v>22</v>
+      </c>
+      <c r="P193" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>44</v>
+      </c>
+      <c r="R193" t="s">
+        <v>92</v>
+      </c>
+      <c r="S193" t="s">
+        <v>18</v>
+      </c>
+      <c r="T193" t="s">
+        <v>47</v>
+      </c>
+      <c r="U193" t="s">
+        <v>52</v>
+      </c>
+      <c r="V193" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>251</v>
+      </c>
+      <c r="B194" t="s">
+        <v>29</v>
+      </c>
+      <c r="C194" t="s">
+        <v>48</v>
+      </c>
+      <c r="D194" t="s">
+        <v>2</v>
+      </c>
+      <c r="E194" t="s">
+        <v>47</v>
+      </c>
+      <c r="F194" t="s">
+        <v>47</v>
+      </c>
+      <c r="G194" t="s">
+        <v>33</v>
+      </c>
+      <c r="H194" t="s">
+        <v>47</v>
+      </c>
+      <c r="I194" t="s">
+        <v>47</v>
+      </c>
+      <c r="J194" t="s">
+        <v>34</v>
+      </c>
+      <c r="K194" t="s">
+        <v>32</v>
+      </c>
+      <c r="L194" t="s">
+        <v>87</v>
+      </c>
+      <c r="M194" t="s">
+        <v>29</v>
+      </c>
+      <c r="N194" t="s">
+        <v>9</v>
+      </c>
+      <c r="O194" t="s">
+        <v>22</v>
+      </c>
+      <c r="P194" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>44</v>
+      </c>
+      <c r="R194" t="s">
+        <v>92</v>
+      </c>
+      <c r="S194" t="s">
+        <v>18</v>
+      </c>
+      <c r="T194" t="s">
+        <v>47</v>
+      </c>
+      <c r="U194" t="s">
+        <v>52</v>
+      </c>
+      <c r="V194" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>252</v>
+      </c>
+      <c r="B195" t="s">
+        <v>29</v>
+      </c>
+      <c r="C195" t="s">
+        <v>48</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>47</v>
+      </c>
+      <c r="F195" t="s">
+        <v>47</v>
+      </c>
+      <c r="G195" t="s">
+        <v>33</v>
+      </c>
+      <c r="H195" t="s">
+        <v>47</v>
+      </c>
+      <c r="I195" t="s">
+        <v>47</v>
+      </c>
+      <c r="J195" t="s">
+        <v>35</v>
+      </c>
+      <c r="K195" t="s">
+        <v>32</v>
+      </c>
+      <c r="L195" t="s">
+        <v>87</v>
+      </c>
+      <c r="M195" t="s">
+        <v>29</v>
+      </c>
+      <c r="N195" t="s">
+        <v>9</v>
+      </c>
+      <c r="O195" t="s">
+        <v>22</v>
+      </c>
+      <c r="P195" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>44</v>
+      </c>
+      <c r="R195" t="s">
+        <v>92</v>
+      </c>
+      <c r="S195" t="s">
+        <v>18</v>
+      </c>
+      <c r="T195" t="s">
+        <v>47</v>
+      </c>
+      <c r="U195" t="s">
+        <v>52</v>
+      </c>
+      <c r="V195" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>253</v>
+      </c>
+      <c r="B196" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196" t="s">
+        <v>48</v>
+      </c>
+      <c r="D196" t="s">
+        <v>2</v>
+      </c>
+      <c r="E196" t="s">
+        <v>47</v>
+      </c>
+      <c r="F196" t="s">
+        <v>47</v>
+      </c>
+      <c r="G196" t="s">
+        <v>33</v>
+      </c>
+      <c r="H196" t="s">
+        <v>47</v>
+      </c>
+      <c r="I196" t="s">
+        <v>47</v>
+      </c>
+      <c r="J196" t="s">
+        <v>36</v>
+      </c>
+      <c r="K196" t="s">
+        <v>32</v>
+      </c>
+      <c r="L196" t="s">
+        <v>87</v>
+      </c>
+      <c r="M196" t="s">
+        <v>29</v>
+      </c>
+      <c r="N196" t="s">
+        <v>9</v>
+      </c>
+      <c r="O196" t="s">
+        <v>22</v>
+      </c>
+      <c r="P196" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>44</v>
+      </c>
+      <c r="R196" t="s">
+        <v>92</v>
+      </c>
+      <c r="S196" t="s">
+        <v>18</v>
+      </c>
+      <c r="T196" t="s">
+        <v>47</v>
+      </c>
+      <c r="U196" t="s">
+        <v>52</v>
+      </c>
+      <c r="V196" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>254</v>
+      </c>
+      <c r="B197" t="s">
+        <v>29</v>
+      </c>
+      <c r="C197" t="s">
+        <v>48</v>
+      </c>
+      <c r="D197" t="s">
+        <v>2</v>
+      </c>
+      <c r="E197" t="s">
+        <v>47</v>
+      </c>
+      <c r="F197" t="s">
+        <v>47</v>
+      </c>
+      <c r="G197" t="s">
+        <v>21</v>
+      </c>
+      <c r="H197" t="s">
+        <v>47</v>
+      </c>
+      <c r="I197" t="s">
+        <v>47</v>
+      </c>
+      <c r="J197" t="s">
+        <v>36</v>
+      </c>
+      <c r="K197" t="s">
+        <v>31</v>
+      </c>
+      <c r="L197" t="s">
+        <v>79</v>
+      </c>
+      <c r="M197" t="s">
+        <v>29</v>
+      </c>
+      <c r="N197" t="s">
+        <v>9</v>
+      </c>
+      <c r="O197" t="s">
+        <v>22</v>
+      </c>
+      <c r="P197" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>44</v>
+      </c>
+      <c r="R197" t="s">
+        <v>92</v>
+      </c>
+      <c r="S197" t="s">
+        <v>18</v>
+      </c>
+      <c r="T197" t="s">
+        <v>47</v>
+      </c>
+      <c r="U197" t="s">
+        <v>52</v>
+      </c>
+      <c r="V197" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>255</v>
+      </c>
+      <c r="B198" t="s">
+        <v>29</v>
+      </c>
+      <c r="C198" t="s">
+        <v>48</v>
+      </c>
+      <c r="D198" t="s">
+        <v>2</v>
+      </c>
+      <c r="E198" t="s">
+        <v>47</v>
+      </c>
+      <c r="F198" t="s">
+        <v>47</v>
+      </c>
+      <c r="G198" t="s">
+        <v>21</v>
+      </c>
+      <c r="H198" t="s">
+        <v>47</v>
+      </c>
+      <c r="I198" t="s">
+        <v>47</v>
+      </c>
+      <c r="J198" t="s">
+        <v>36</v>
+      </c>
+      <c r="K198" t="s">
+        <v>31</v>
+      </c>
+      <c r="L198" t="s">
+        <v>87</v>
+      </c>
+      <c r="M198" t="s">
+        <v>29</v>
+      </c>
+      <c r="N198" t="s">
+        <v>9</v>
+      </c>
+      <c r="O198" t="s">
+        <v>22</v>
+      </c>
+      <c r="P198" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>44</v>
+      </c>
+      <c r="R198" t="s">
+        <v>92</v>
+      </c>
+      <c r="S198" t="s">
+        <v>18</v>
+      </c>
+      <c r="T198" t="s">
+        <v>47</v>
+      </c>
+      <c r="U198" t="s">
+        <v>52</v>
+      </c>
+      <c r="V198" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>256</v>
+      </c>
+      <c r="B199" t="s">
+        <v>29</v>
+      </c>
+      <c r="C199" t="s">
+        <v>48</v>
+      </c>
+      <c r="D199" t="s">
+        <v>2</v>
+      </c>
+      <c r="E199" t="s">
+        <v>47</v>
+      </c>
+      <c r="F199" t="s">
+        <v>47</v>
+      </c>
+      <c r="G199" t="s">
+        <v>21</v>
+      </c>
+      <c r="H199" t="s">
+        <v>47</v>
+      </c>
+      <c r="I199" t="s">
+        <v>47</v>
+      </c>
+      <c r="J199" t="s">
+        <v>36</v>
+      </c>
+      <c r="K199" t="s">
+        <v>30</v>
+      </c>
+      <c r="L199" t="s">
+        <v>79</v>
+      </c>
+      <c r="M199" t="s">
+        <v>29</v>
+      </c>
+      <c r="N199" t="s">
+        <v>9</v>
+      </c>
+      <c r="O199" t="s">
+        <v>22</v>
+      </c>
+      <c r="P199" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>44</v>
+      </c>
+      <c r="R199" t="s">
+        <v>92</v>
+      </c>
+      <c r="S199" t="s">
+        <v>18</v>
+      </c>
+      <c r="T199" t="s">
+        <v>47</v>
+      </c>
+      <c r="U199" t="s">
+        <v>52</v>
+      </c>
+      <c r="V199" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>257</v>
+      </c>
+      <c r="B200" t="s">
+        <v>29</v>
+      </c>
+      <c r="C200" t="s">
+        <v>48</v>
+      </c>
+      <c r="D200" t="s">
+        <v>2</v>
+      </c>
+      <c r="E200" t="s">
+        <v>47</v>
+      </c>
+      <c r="F200" t="s">
+        <v>47</v>
+      </c>
+      <c r="G200" t="s">
+        <v>21</v>
+      </c>
+      <c r="H200" t="s">
+        <v>47</v>
+      </c>
+      <c r="I200" t="s">
+        <v>47</v>
+      </c>
+      <c r="J200" t="s">
+        <v>36</v>
+      </c>
+      <c r="K200" t="s">
+        <v>30</v>
+      </c>
+      <c r="L200" t="s">
+        <v>87</v>
+      </c>
+      <c r="M200" t="s">
+        <v>29</v>
+      </c>
+      <c r="N200" t="s">
+        <v>9</v>
+      </c>
+      <c r="O200" t="s">
+        <v>22</v>
+      </c>
+      <c r="P200" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>44</v>
+      </c>
+      <c r="R200" t="s">
+        <v>92</v>
+      </c>
+      <c r="S200" t="s">
+        <v>18</v>
+      </c>
+      <c r="T200" t="s">
+        <v>47</v>
+      </c>
+      <c r="U200" t="s">
+        <v>52</v>
+      </c>
+      <c r="V200" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>258</v>
+      </c>
+      <c r="B202" t="s">
+        <v>29</v>
+      </c>
+      <c r="C202" t="s">
+        <v>48</v>
+      </c>
+      <c r="D202" t="s">
+        <v>2</v>
+      </c>
+      <c r="E202" t="s">
+        <v>56</v>
+      </c>
+      <c r="F202" t="s">
+        <v>47</v>
+      </c>
+      <c r="G202" t="s">
+        <v>21</v>
+      </c>
+      <c r="H202" t="s">
+        <v>57</v>
+      </c>
+      <c r="I202" t="s">
+        <v>66</v>
+      </c>
+      <c r="J202" t="s">
+        <v>34</v>
+      </c>
+      <c r="K202" t="s">
+        <v>30</v>
+      </c>
+      <c r="L202" t="s">
+        <v>79</v>
+      </c>
+      <c r="M202" t="s">
+        <v>29</v>
+      </c>
+      <c r="N202" t="s">
+        <v>9</v>
+      </c>
+      <c r="O202" t="s">
+        <v>22</v>
+      </c>
+      <c r="P202" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>44</v>
+      </c>
+      <c r="R202" t="s">
+        <v>92</v>
+      </c>
+      <c r="S202" t="s">
+        <v>17</v>
+      </c>
+      <c r="T202" t="s">
+        <v>47</v>
+      </c>
+      <c r="U202" t="s">
+        <v>52</v>
+      </c>
+      <c r="V202" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>259</v>
+      </c>
+      <c r="B203" t="s">
+        <v>29</v>
+      </c>
+      <c r="C203" t="s">
+        <v>48</v>
+      </c>
+      <c r="D203" t="s">
+        <v>2</v>
+      </c>
+      <c r="E203" t="s">
+        <v>56</v>
+      </c>
+      <c r="F203" t="s">
+        <v>47</v>
+      </c>
+      <c r="G203" t="s">
+        <v>21</v>
+      </c>
+      <c r="H203" t="s">
+        <v>57</v>
+      </c>
+      <c r="I203" t="s">
+        <v>66</v>
+      </c>
+      <c r="J203" t="s">
+        <v>34</v>
+      </c>
+      <c r="K203" t="s">
+        <v>30</v>
+      </c>
+      <c r="L203" t="s">
+        <v>87</v>
+      </c>
+      <c r="M203" t="s">
+        <v>29</v>
+      </c>
+      <c r="N203" t="s">
+        <v>9</v>
+      </c>
+      <c r="O203" t="s">
+        <v>22</v>
+      </c>
+      <c r="P203" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>44</v>
+      </c>
+      <c r="R203" t="s">
+        <v>92</v>
+      </c>
+      <c r="S203" t="s">
+        <v>17</v>
+      </c>
+      <c r="T203" t="s">
+        <v>47</v>
+      </c>
+      <c r="U203" t="s">
+        <v>52</v>
+      </c>
+      <c r="V203" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>260</v>
+      </c>
+      <c r="B204" t="s">
+        <v>29</v>
+      </c>
+      <c r="C204" t="s">
+        <v>48</v>
+      </c>
+      <c r="D204" t="s">
+        <v>2</v>
+      </c>
+      <c r="E204" t="s">
+        <v>56</v>
+      </c>
+      <c r="F204" t="s">
+        <v>47</v>
+      </c>
+      <c r="G204" t="s">
+        <v>21</v>
+      </c>
+      <c r="H204" t="s">
+        <v>57</v>
+      </c>
+      <c r="I204" t="s">
+        <v>66</v>
+      </c>
+      <c r="J204" t="s">
+        <v>34</v>
+      </c>
+      <c r="K204" t="s">
+        <v>31</v>
+      </c>
+      <c r="L204" t="s">
+        <v>79</v>
+      </c>
+      <c r="M204" t="s">
+        <v>29</v>
+      </c>
+      <c r="N204" t="s">
+        <v>9</v>
+      </c>
+      <c r="O204" t="s">
+        <v>22</v>
+      </c>
+      <c r="P204" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>44</v>
+      </c>
+      <c r="R204" t="s">
+        <v>92</v>
+      </c>
+      <c r="S204" t="s">
+        <v>17</v>
+      </c>
+      <c r="T204" t="s">
+        <v>47</v>
+      </c>
+      <c r="U204" t="s">
+        <v>52</v>
+      </c>
+      <c r="V204" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>261</v>
+      </c>
+      <c r="B205" t="s">
+        <v>29</v>
+      </c>
+      <c r="C205" t="s">
+        <v>48</v>
+      </c>
+      <c r="D205" t="s">
+        <v>2</v>
+      </c>
+      <c r="E205" t="s">
+        <v>56</v>
+      </c>
+      <c r="F205" t="s">
+        <v>47</v>
+      </c>
+      <c r="G205" t="s">
+        <v>21</v>
+      </c>
+      <c r="H205" t="s">
+        <v>57</v>
+      </c>
+      <c r="I205" t="s">
+        <v>66</v>
+      </c>
+      <c r="J205" t="s">
+        <v>34</v>
+      </c>
+      <c r="K205" t="s">
+        <v>31</v>
+      </c>
+      <c r="L205" t="s">
+        <v>87</v>
+      </c>
+      <c r="M205" t="s">
+        <v>29</v>
+      </c>
+      <c r="N205" t="s">
+        <v>9</v>
+      </c>
+      <c r="O205" t="s">
+        <v>22</v>
+      </c>
+      <c r="P205" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>44</v>
+      </c>
+      <c r="R205" t="s">
+        <v>92</v>
+      </c>
+      <c r="S205" t="s">
+        <v>17</v>
+      </c>
+      <c r="T205" t="s">
+        <v>47</v>
+      </c>
+      <c r="U205" t="s">
+        <v>52</v>
+      </c>
+      <c r="V205" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>262</v>
+      </c>
+      <c r="B206" t="s">
+        <v>29</v>
+      </c>
+      <c r="C206" t="s">
+        <v>48</v>
+      </c>
+      <c r="D206" t="s">
+        <v>2</v>
+      </c>
+      <c r="E206" t="s">
+        <v>47</v>
+      </c>
+      <c r="F206" t="s">
+        <v>47</v>
+      </c>
+      <c r="G206" t="s">
+        <v>21</v>
+      </c>
+      <c r="H206" t="s">
+        <v>47</v>
+      </c>
+      <c r="I206" t="s">
+        <v>47</v>
+      </c>
+      <c r="J206" t="s">
+        <v>36</v>
+      </c>
+      <c r="K206" t="s">
+        <v>32</v>
+      </c>
+      <c r="L206" t="s">
+        <v>87</v>
+      </c>
+      <c r="M206" t="s">
+        <v>29</v>
+      </c>
+      <c r="N206" t="s">
+        <v>9</v>
+      </c>
+      <c r="O206" t="s">
+        <v>22</v>
+      </c>
+      <c r="P206" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>44</v>
+      </c>
+      <c r="R206" t="s">
+        <v>92</v>
+      </c>
+      <c r="S206" t="s">
+        <v>17</v>
+      </c>
+      <c r="T206" t="s">
+        <v>47</v>
+      </c>
+      <c r="U206" t="s">
+        <v>52</v>
+      </c>
+      <c r="V206" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>263</v>
+      </c>
+      <c r="B207" t="s">
+        <v>29</v>
+      </c>
+      <c r="C207" t="s">
+        <v>48</v>
+      </c>
+      <c r="D207" t="s">
+        <v>2</v>
+      </c>
+      <c r="E207" t="s">
+        <v>47</v>
+      </c>
+      <c r="F207" t="s">
+        <v>47</v>
+      </c>
+      <c r="G207" t="s">
+        <v>33</v>
+      </c>
+      <c r="H207" t="s">
+        <v>47</v>
+      </c>
+      <c r="I207" t="s">
+        <v>47</v>
+      </c>
+      <c r="J207" t="s">
+        <v>36</v>
+      </c>
+      <c r="K207" t="s">
+        <v>31</v>
+      </c>
+      <c r="L207" t="s">
+        <v>79</v>
+      </c>
+      <c r="M207" t="s">
+        <v>29</v>
+      </c>
+      <c r="N207" t="s">
+        <v>9</v>
+      </c>
+      <c r="O207" t="s">
+        <v>22</v>
+      </c>
+      <c r="P207" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>44</v>
+      </c>
+      <c r="R207" t="s">
+        <v>92</v>
+      </c>
+      <c r="S207" t="s">
+        <v>17</v>
+      </c>
+      <c r="T207" t="s">
+        <v>47</v>
+      </c>
+      <c r="U207" t="s">
+        <v>52</v>
+      </c>
+      <c r="V207" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>264</v>
+      </c>
+      <c r="B208" t="s">
+        <v>29</v>
+      </c>
+      <c r="C208" t="s">
+        <v>48</v>
+      </c>
+      <c r="D208" t="s">
+        <v>2</v>
+      </c>
+      <c r="E208" t="s">
+        <v>47</v>
+      </c>
+      <c r="F208" t="s">
+        <v>47</v>
+      </c>
+      <c r="G208" t="s">
+        <v>33</v>
+      </c>
+      <c r="H208" t="s">
+        <v>47</v>
+      </c>
+      <c r="I208" t="s">
+        <v>47</v>
+      </c>
+      <c r="J208" t="s">
+        <v>36</v>
+      </c>
+      <c r="K208" t="s">
+        <v>31</v>
+      </c>
+      <c r="L208" t="s">
+        <v>87</v>
+      </c>
+      <c r="M208" t="s">
+        <v>29</v>
+      </c>
+      <c r="N208" t="s">
+        <v>9</v>
+      </c>
+      <c r="O208" t="s">
+        <v>22</v>
+      </c>
+      <c r="P208" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>44</v>
+      </c>
+      <c r="R208" t="s">
+        <v>92</v>
+      </c>
+      <c r="S208" t="s">
+        <v>17</v>
+      </c>
+      <c r="T208" t="s">
+        <v>47</v>
+      </c>
+      <c r="U208" t="s">
+        <v>52</v>
+      </c>
+      <c r="V208" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>265</v>
+      </c>
+      <c r="B209" t="s">
+        <v>29</v>
+      </c>
+      <c r="C209" t="s">
+        <v>48</v>
+      </c>
+      <c r="D209" t="s">
+        <v>2</v>
+      </c>
+      <c r="E209" t="s">
+        <v>47</v>
+      </c>
+      <c r="F209" t="s">
+        <v>47</v>
+      </c>
+      <c r="G209" t="s">
+        <v>33</v>
+      </c>
+      <c r="H209" t="s">
+        <v>47</v>
+      </c>
+      <c r="I209" t="s">
+        <v>47</v>
+      </c>
+      <c r="J209" t="s">
+        <v>36</v>
+      </c>
+      <c r="K209" t="s">
+        <v>30</v>
+      </c>
+      <c r="L209" t="s">
+        <v>79</v>
+      </c>
+      <c r="M209" t="s">
+        <v>29</v>
+      </c>
+      <c r="N209" t="s">
+        <v>9</v>
+      </c>
+      <c r="O209" t="s">
+        <v>22</v>
+      </c>
+      <c r="P209" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>44</v>
+      </c>
+      <c r="R209" t="s">
+        <v>92</v>
+      </c>
+      <c r="S209" t="s">
+        <v>17</v>
+      </c>
+      <c r="T209" t="s">
+        <v>47</v>
+      </c>
+      <c r="U209" t="s">
+        <v>52</v>
+      </c>
+      <c r="V209" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>266</v>
+      </c>
+      <c r="B210" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210" t="s">
+        <v>48</v>
+      </c>
+      <c r="D210" t="s">
+        <v>2</v>
+      </c>
+      <c r="E210" t="s">
+        <v>47</v>
+      </c>
+      <c r="F210" t="s">
+        <v>47</v>
+      </c>
+      <c r="G210" t="s">
+        <v>33</v>
+      </c>
+      <c r="H210" t="s">
+        <v>47</v>
+      </c>
+      <c r="I210" t="s">
+        <v>47</v>
+      </c>
+      <c r="J210" t="s">
+        <v>36</v>
+      </c>
+      <c r="K210" t="s">
+        <v>30</v>
+      </c>
+      <c r="L210" t="s">
+        <v>87</v>
+      </c>
+      <c r="M210" t="s">
+        <v>29</v>
+      </c>
+      <c r="N210" t="s">
+        <v>9</v>
+      </c>
+      <c r="O210" t="s">
+        <v>22</v>
+      </c>
+      <c r="P210" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>44</v>
+      </c>
+      <c r="R210" t="s">
+        <v>92</v>
+      </c>
+      <c r="S210" t="s">
+        <v>17</v>
+      </c>
+      <c r="T210" t="s">
+        <v>47</v>
+      </c>
+      <c r="U210" t="s">
+        <v>52</v>
+      </c>
+      <c r="V210" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>267</v>
+      </c>
+      <c r="B212" t="s">
+        <v>29</v>
+      </c>
+      <c r="C212" t="s">
+        <v>48</v>
+      </c>
+      <c r="D212" t="s">
+        <v>2</v>
+      </c>
+      <c r="E212" t="s">
+        <v>56</v>
+      </c>
+      <c r="F212" t="s">
+        <v>47</v>
+      </c>
+      <c r="G212" t="s">
+        <v>21</v>
+      </c>
+      <c r="H212" t="s">
+        <v>57</v>
+      </c>
+      <c r="I212" t="s">
+        <v>66</v>
+      </c>
+      <c r="J212" t="s">
+        <v>34</v>
+      </c>
+      <c r="K212" t="s">
+        <v>30</v>
+      </c>
+      <c r="L212" t="s">
+        <v>79</v>
+      </c>
+      <c r="M212" t="s">
+        <v>29</v>
+      </c>
+      <c r="N212" t="s">
+        <v>9</v>
+      </c>
+      <c r="O212" t="s">
+        <v>22</v>
+      </c>
+      <c r="P212" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>44</v>
+      </c>
+      <c r="R212" t="s">
+        <v>92</v>
+      </c>
+      <c r="S212" t="s">
+        <v>18</v>
+      </c>
+      <c r="T212" t="s">
+        <v>47</v>
+      </c>
+      <c r="U212" t="s">
+        <v>52</v>
+      </c>
+      <c r="V212" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>268</v>
+      </c>
+      <c r="B213" t="s">
+        <v>29</v>
+      </c>
+      <c r="C213" t="s">
+        <v>48</v>
+      </c>
+      <c r="D213" t="s">
+        <v>2</v>
+      </c>
+      <c r="E213" t="s">
+        <v>56</v>
+      </c>
+      <c r="F213" t="s">
+        <v>47</v>
+      </c>
+      <c r="G213" t="s">
+        <v>21</v>
+      </c>
+      <c r="H213" t="s">
+        <v>57</v>
+      </c>
+      <c r="I213" t="s">
+        <v>66</v>
+      </c>
+      <c r="J213" t="s">
+        <v>34</v>
+      </c>
+      <c r="K213" t="s">
+        <v>30</v>
+      </c>
+      <c r="L213" t="s">
+        <v>87</v>
+      </c>
+      <c r="M213" t="s">
+        <v>29</v>
+      </c>
+      <c r="N213" t="s">
+        <v>9</v>
+      </c>
+      <c r="O213" t="s">
+        <v>22</v>
+      </c>
+      <c r="P213" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>44</v>
+      </c>
+      <c r="R213" t="s">
+        <v>92</v>
+      </c>
+      <c r="S213" t="s">
+        <v>18</v>
+      </c>
+      <c r="T213" t="s">
+        <v>47</v>
+      </c>
+      <c r="U213" t="s">
+        <v>52</v>
+      </c>
+      <c r="V213" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>269</v>
+      </c>
+      <c r="B214" t="s">
+        <v>29</v>
+      </c>
+      <c r="C214" t="s">
+        <v>48</v>
+      </c>
+      <c r="D214" t="s">
+        <v>2</v>
+      </c>
+      <c r="E214" t="s">
+        <v>56</v>
+      </c>
+      <c r="F214" t="s">
+        <v>47</v>
+      </c>
+      <c r="G214" t="s">
+        <v>21</v>
+      </c>
+      <c r="H214" t="s">
+        <v>57</v>
+      </c>
+      <c r="I214" t="s">
+        <v>66</v>
+      </c>
+      <c r="J214" t="s">
+        <v>34</v>
+      </c>
+      <c r="K214" t="s">
+        <v>31</v>
+      </c>
+      <c r="L214" t="s">
+        <v>79</v>
+      </c>
+      <c r="M214" t="s">
+        <v>29</v>
+      </c>
+      <c r="N214" t="s">
+        <v>9</v>
+      </c>
+      <c r="O214" t="s">
+        <v>22</v>
+      </c>
+      <c r="P214" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>44</v>
+      </c>
+      <c r="R214" t="s">
+        <v>92</v>
+      </c>
+      <c r="S214" t="s">
+        <v>18</v>
+      </c>
+      <c r="T214" t="s">
+        <v>47</v>
+      </c>
+      <c r="U214" t="s">
+        <v>52</v>
+      </c>
+      <c r="V214" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>270</v>
+      </c>
+      <c r="B215" t="s">
+        <v>29</v>
+      </c>
+      <c r="C215" t="s">
+        <v>48</v>
+      </c>
+      <c r="D215" t="s">
+        <v>2</v>
+      </c>
+      <c r="E215" t="s">
+        <v>56</v>
+      </c>
+      <c r="F215" t="s">
+        <v>47</v>
+      </c>
+      <c r="G215" t="s">
+        <v>21</v>
+      </c>
+      <c r="H215" t="s">
+        <v>57</v>
+      </c>
+      <c r="I215" t="s">
+        <v>66</v>
+      </c>
+      <c r="J215" t="s">
+        <v>34</v>
+      </c>
+      <c r="K215" t="s">
+        <v>31</v>
+      </c>
+      <c r="L215" t="s">
+        <v>87</v>
+      </c>
+      <c r="M215" t="s">
+        <v>29</v>
+      </c>
+      <c r="N215" t="s">
+        <v>9</v>
+      </c>
+      <c r="O215" t="s">
+        <v>22</v>
+      </c>
+      <c r="P215" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>44</v>
+      </c>
+      <c r="R215" t="s">
+        <v>92</v>
+      </c>
+      <c r="S215" t="s">
+        <v>18</v>
+      </c>
+      <c r="T215" t="s">
+        <v>47</v>
+      </c>
+      <c r="U215" t="s">
+        <v>52</v>
+      </c>
+      <c r="V215" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>271</v>
+      </c>
+      <c r="B216" t="s">
+        <v>29</v>
+      </c>
+      <c r="C216" t="s">
+        <v>48</v>
+      </c>
+      <c r="D216" t="s">
+        <v>2</v>
+      </c>
+      <c r="E216" t="s">
+        <v>47</v>
+      </c>
+      <c r="F216" t="s">
+        <v>47</v>
+      </c>
+      <c r="G216" t="s">
+        <v>21</v>
+      </c>
+      <c r="H216" t="s">
+        <v>47</v>
+      </c>
+      <c r="I216" t="s">
+        <v>47</v>
+      </c>
+      <c r="J216" t="s">
+        <v>36</v>
+      </c>
+      <c r="K216" t="s">
+        <v>32</v>
+      </c>
+      <c r="L216" t="s">
+        <v>87</v>
+      </c>
+      <c r="M216" t="s">
+        <v>29</v>
+      </c>
+      <c r="N216" t="s">
+        <v>9</v>
+      </c>
+      <c r="O216" t="s">
+        <v>22</v>
+      </c>
+      <c r="P216" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>44</v>
+      </c>
+      <c r="R216" t="s">
+        <v>92</v>
+      </c>
+      <c r="S216" t="s">
+        <v>18</v>
+      </c>
+      <c r="T216" t="s">
+        <v>47</v>
+      </c>
+      <c r="U216" t="s">
+        <v>52</v>
+      </c>
+      <c r="V216" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>272</v>
+      </c>
+      <c r="B217" t="s">
+        <v>29</v>
+      </c>
+      <c r="C217" t="s">
+        <v>48</v>
+      </c>
+      <c r="D217" t="s">
+        <v>2</v>
+      </c>
+      <c r="E217" t="s">
+        <v>47</v>
+      </c>
+      <c r="F217" t="s">
+        <v>47</v>
+      </c>
+      <c r="G217" t="s">
+        <v>33</v>
+      </c>
+      <c r="H217" t="s">
+        <v>47</v>
+      </c>
+      <c r="I217" t="s">
+        <v>47</v>
+      </c>
+      <c r="J217" t="s">
+        <v>36</v>
+      </c>
+      <c r="K217" t="s">
+        <v>31</v>
+      </c>
+      <c r="L217" t="s">
+        <v>79</v>
+      </c>
+      <c r="M217" t="s">
+        <v>29</v>
+      </c>
+      <c r="N217" t="s">
+        <v>9</v>
+      </c>
+      <c r="O217" t="s">
+        <v>22</v>
+      </c>
+      <c r="P217" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>44</v>
+      </c>
+      <c r="R217" t="s">
+        <v>92</v>
+      </c>
+      <c r="S217" t="s">
+        <v>18</v>
+      </c>
+      <c r="T217" t="s">
+        <v>47</v>
+      </c>
+      <c r="U217" t="s">
+        <v>52</v>
+      </c>
+      <c r="V217" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>273</v>
+      </c>
+      <c r="B218" t="s">
+        <v>29</v>
+      </c>
+      <c r="C218" t="s">
+        <v>48</v>
+      </c>
+      <c r="D218" t="s">
+        <v>2</v>
+      </c>
+      <c r="E218" t="s">
+        <v>47</v>
+      </c>
+      <c r="F218" t="s">
+        <v>47</v>
+      </c>
+      <c r="G218" t="s">
+        <v>33</v>
+      </c>
+      <c r="H218" t="s">
+        <v>47</v>
+      </c>
+      <c r="I218" t="s">
+        <v>47</v>
+      </c>
+      <c r="J218" t="s">
+        <v>36</v>
+      </c>
+      <c r="K218" t="s">
+        <v>31</v>
+      </c>
+      <c r="L218" t="s">
+        <v>87</v>
+      </c>
+      <c r="M218" t="s">
+        <v>29</v>
+      </c>
+      <c r="N218" t="s">
+        <v>9</v>
+      </c>
+      <c r="O218" t="s">
+        <v>22</v>
+      </c>
+      <c r="P218" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>44</v>
+      </c>
+      <c r="R218" t="s">
+        <v>92</v>
+      </c>
+      <c r="S218" t="s">
+        <v>18</v>
+      </c>
+      <c r="T218" t="s">
+        <v>47</v>
+      </c>
+      <c r="U218" t="s">
+        <v>52</v>
+      </c>
+      <c r="V218" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>274</v>
+      </c>
+      <c r="B219" t="s">
+        <v>29</v>
+      </c>
+      <c r="C219" t="s">
+        <v>48</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2</v>
+      </c>
+      <c r="E219" t="s">
+        <v>47</v>
+      </c>
+      <c r="F219" t="s">
+        <v>47</v>
+      </c>
+      <c r="G219" t="s">
+        <v>33</v>
+      </c>
+      <c r="H219" t="s">
+        <v>47</v>
+      </c>
+      <c r="I219" t="s">
+        <v>47</v>
+      </c>
+      <c r="J219" t="s">
+        <v>36</v>
+      </c>
+      <c r="K219" t="s">
+        <v>30</v>
+      </c>
+      <c r="L219" t="s">
+        <v>79</v>
+      </c>
+      <c r="M219" t="s">
+        <v>29</v>
+      </c>
+      <c r="N219" t="s">
+        <v>9</v>
+      </c>
+      <c r="O219" t="s">
+        <v>22</v>
+      </c>
+      <c r="P219" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>44</v>
+      </c>
+      <c r="R219" t="s">
+        <v>92</v>
+      </c>
+      <c r="S219" t="s">
+        <v>18</v>
+      </c>
+      <c r="T219" t="s">
+        <v>47</v>
+      </c>
+      <c r="U219" t="s">
+        <v>52</v>
+      </c>
+      <c r="V219" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>275</v>
+      </c>
+      <c r="B220" t="s">
+        <v>29</v>
+      </c>
+      <c r="C220" t="s">
+        <v>48</v>
+      </c>
+      <c r="D220" t="s">
+        <v>2</v>
+      </c>
+      <c r="E220" t="s">
+        <v>47</v>
+      </c>
+      <c r="F220" t="s">
+        <v>47</v>
+      </c>
+      <c r="G220" t="s">
+        <v>33</v>
+      </c>
+      <c r="H220" t="s">
+        <v>47</v>
+      </c>
+      <c r="I220" t="s">
+        <v>47</v>
+      </c>
+      <c r="J220" t="s">
+        <v>36</v>
+      </c>
+      <c r="K220" t="s">
+        <v>30</v>
+      </c>
+      <c r="L220" t="s">
+        <v>87</v>
+      </c>
+      <c r="M220" t="s">
+        <v>29</v>
+      </c>
+      <c r="N220" t="s">
+        <v>9</v>
+      </c>
+      <c r="O220" t="s">
+        <v>22</v>
+      </c>
+      <c r="P220" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>44</v>
+      </c>
+      <c r="R220" t="s">
+        <v>92</v>
+      </c>
+      <c r="S220" t="s">
+        <v>18</v>
+      </c>
+      <c r="T220" t="s">
+        <v>47</v>
+      </c>
+      <c r="U220" t="s">
+        <v>52</v>
+      </c>
+      <c r="V220" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>276</v>
+      </c>
+      <c r="B222" t="s">
+        <v>29</v>
+      </c>
+      <c r="C222" t="s">
+        <v>48</v>
+      </c>
+      <c r="D222" t="s">
+        <v>2</v>
+      </c>
+      <c r="E222" t="s">
+        <v>47</v>
+      </c>
+      <c r="F222" t="s">
+        <v>47</v>
+      </c>
+      <c r="G222" t="s">
+        <v>33</v>
+      </c>
+      <c r="H222" t="s">
+        <v>47</v>
+      </c>
+      <c r="I222" t="s">
+        <v>47</v>
+      </c>
+      <c r="J222" t="s">
+        <v>35</v>
+      </c>
+      <c r="K222" t="s">
+        <v>31</v>
+      </c>
+      <c r="L222" t="s">
+        <v>87</v>
+      </c>
+      <c r="M222" t="s">
+        <v>29</v>
+      </c>
+      <c r="N222" t="s">
+        <v>9</v>
+      </c>
+      <c r="O222" t="s">
+        <v>22</v>
+      </c>
+      <c r="P222" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>44</v>
+      </c>
+      <c r="R222" t="s">
+        <v>92</v>
+      </c>
+      <c r="S222" t="s">
+        <v>17</v>
+      </c>
+      <c r="T222" t="s">
+        <v>47</v>
+      </c>
+      <c r="U222" t="s">
+        <v>52</v>
+      </c>
+      <c r="V222" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>277</v>
+      </c>
+      <c r="B223" t="s">
+        <v>29</v>
+      </c>
+      <c r="C223" t="s">
+        <v>48</v>
+      </c>
+      <c r="D223" t="s">
+        <v>2</v>
+      </c>
+      <c r="E223" t="s">
+        <v>47</v>
+      </c>
+      <c r="F223" t="s">
+        <v>47</v>
+      </c>
+      <c r="G223" t="s">
+        <v>33</v>
+      </c>
+      <c r="H223" t="s">
+        <v>47</v>
+      </c>
+      <c r="I223" t="s">
+        <v>47</v>
+      </c>
+      <c r="J223" t="s">
+        <v>35</v>
+      </c>
+      <c r="K223" t="s">
+        <v>30</v>
+      </c>
+      <c r="L223" t="s">
+        <v>79</v>
+      </c>
+      <c r="M223" t="s">
+        <v>29</v>
+      </c>
+      <c r="N223" t="s">
+        <v>9</v>
+      </c>
+      <c r="O223" t="s">
+        <v>22</v>
+      </c>
+      <c r="P223" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>44</v>
+      </c>
+      <c r="R223" t="s">
+        <v>92</v>
+      </c>
+      <c r="S223" t="s">
+        <v>17</v>
+      </c>
+      <c r="T223" t="s">
+        <v>47</v>
+      </c>
+      <c r="U223" t="s">
+        <v>52</v>
+      </c>
+      <c r="V223" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>278</v>
+      </c>
+      <c r="B224" t="s">
+        <v>29</v>
+      </c>
+      <c r="C224" t="s">
+        <v>48</v>
+      </c>
+      <c r="D224" t="s">
+        <v>2</v>
+      </c>
+      <c r="E224" t="s">
+        <v>47</v>
+      </c>
+      <c r="F224" t="s">
+        <v>47</v>
+      </c>
+      <c r="G224" t="s">
+        <v>21</v>
+      </c>
+      <c r="H224" t="s">
+        <v>47</v>
+      </c>
+      <c r="I224" t="s">
+        <v>47</v>
+      </c>
+      <c r="J224" t="s">
+        <v>35</v>
+      </c>
+      <c r="K224" t="s">
+        <v>30</v>
+      </c>
+      <c r="L224" t="s">
+        <v>79</v>
+      </c>
+      <c r="M224" t="s">
+        <v>29</v>
+      </c>
+      <c r="N224" t="s">
+        <v>9</v>
+      </c>
+      <c r="O224" t="s">
+        <v>22</v>
+      </c>
+      <c r="P224" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>44</v>
+      </c>
+      <c r="R224" t="s">
+        <v>92</v>
+      </c>
+      <c r="S224" t="s">
+        <v>17</v>
+      </c>
+      <c r="T224" t="s">
+        <v>47</v>
+      </c>
+      <c r="U224" t="s">
+        <v>52</v>
+      </c>
+      <c r="V224" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>279</v>
+      </c>
+      <c r="B225" t="s">
+        <v>29</v>
+      </c>
+      <c r="C225" t="s">
+        <v>48</v>
+      </c>
+      <c r="D225" t="s">
+        <v>2</v>
+      </c>
+      <c r="E225" t="s">
+        <v>47</v>
+      </c>
+      <c r="F225" t="s">
+        <v>47</v>
+      </c>
+      <c r="G225" t="s">
+        <v>33</v>
+      </c>
+      <c r="H225" t="s">
+        <v>47</v>
+      </c>
+      <c r="I225" t="s">
+        <v>47</v>
+      </c>
+      <c r="J225" t="s">
+        <v>35</v>
+      </c>
+      <c r="K225" t="s">
+        <v>31</v>
+      </c>
+      <c r="L225" t="s">
+        <v>87</v>
+      </c>
+      <c r="M225" t="s">
+        <v>29</v>
+      </c>
+      <c r="N225" t="s">
+        <v>9</v>
+      </c>
+      <c r="O225" t="s">
+        <v>22</v>
+      </c>
+      <c r="P225" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>44</v>
+      </c>
+      <c r="R225" t="s">
+        <v>92</v>
+      </c>
+      <c r="S225" t="s">
+        <v>18</v>
+      </c>
+      <c r="T225" t="s">
+        <v>47</v>
+      </c>
+      <c r="U225" t="s">
+        <v>52</v>
+      </c>
+      <c r="V225" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>280</v>
+      </c>
+      <c r="B226" t="s">
+        <v>29</v>
+      </c>
+      <c r="C226" t="s">
+        <v>48</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2</v>
+      </c>
+      <c r="E226" t="s">
+        <v>47</v>
+      </c>
+      <c r="F226" t="s">
+        <v>47</v>
+      </c>
+      <c r="G226" t="s">
+        <v>33</v>
+      </c>
+      <c r="H226" t="s">
+        <v>47</v>
+      </c>
+      <c r="I226" t="s">
+        <v>47</v>
+      </c>
+      <c r="J226" t="s">
+        <v>35</v>
+      </c>
+      <c r="K226" t="s">
+        <v>30</v>
+      </c>
+      <c r="L226" t="s">
+        <v>79</v>
+      </c>
+      <c r="M226" t="s">
+        <v>29</v>
+      </c>
+      <c r="N226" t="s">
+        <v>9</v>
+      </c>
+      <c r="O226" t="s">
+        <v>22</v>
+      </c>
+      <c r="P226" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>44</v>
+      </c>
+      <c r="R226" t="s">
+        <v>92</v>
+      </c>
+      <c r="S226" t="s">
+        <v>18</v>
+      </c>
+      <c r="T226" t="s">
+        <v>47</v>
+      </c>
+      <c r="U226" t="s">
+        <v>52</v>
+      </c>
+      <c r="V226" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>281</v>
+      </c>
+      <c r="B227" t="s">
+        <v>29</v>
+      </c>
+      <c r="C227" t="s">
+        <v>48</v>
+      </c>
+      <c r="D227" t="s">
+        <v>2</v>
+      </c>
+      <c r="E227" t="s">
+        <v>47</v>
+      </c>
+      <c r="F227" t="s">
+        <v>47</v>
+      </c>
+      <c r="G227" t="s">
+        <v>21</v>
+      </c>
+      <c r="H227" t="s">
+        <v>47</v>
+      </c>
+      <c r="I227" t="s">
+        <v>47</v>
+      </c>
+      <c r="J227" t="s">
+        <v>35</v>
+      </c>
+      <c r="K227" t="s">
+        <v>30</v>
+      </c>
+      <c r="L227" t="s">
+        <v>79</v>
+      </c>
+      <c r="M227" t="s">
+        <v>29</v>
+      </c>
+      <c r="N227" t="s">
+        <v>9</v>
+      </c>
+      <c r="O227" t="s">
+        <v>22</v>
+      </c>
+      <c r="P227" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>44</v>
+      </c>
+      <c r="R227" t="s">
+        <v>92</v>
+      </c>
+      <c r="S227" t="s">
+        <v>18</v>
+      </c>
+      <c r="T227" t="s">
+        <v>47</v>
+      </c>
+      <c r="U227" t="s">
+        <v>52</v>
+      </c>
+      <c r="V227" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/src/defaultipa.xlsx
+++ b/src/defaultipa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\accel\ProjectHome\phonetic-problem-generator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085C7D6F-A302-41E0-8518-B68D441B85E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57914E49-D62D-4A7B-8CD5-E90DBEA1CEAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18120" xr2:uid="{A2B073AC-DFC3-D048-8692-BFCEF974FFF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2B073AC-DFC3-D048-8692-BFCEF974FFF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1230,37 +1230,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580C24B1-92A6-954F-80C3-690B3863B6C1}">
   <dimension ref="A1:V227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.35546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.35546875" customWidth="1"/>
-    <col min="6" max="6" width="11.35546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.35546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.5" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>71</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>211</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>212</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>197</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>107</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>216</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>217</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>218</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>219</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>220</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>221</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>113</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>222</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>223</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>224</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>123</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>150</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>151</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>154</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>155</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>139</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>142</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>201</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>202</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>203</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>204</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>205</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>206</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>144</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>146</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>233</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>234</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>226</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>227</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>228</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>229</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>230</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>231</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>235</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>232</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>156</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>157</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>84</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>191</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>188</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>124</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>190</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>37</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>133</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>134</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>135</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>81</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>187</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>82</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>86</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>88</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>184</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>168</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>27</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>93</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>28</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>94</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>95</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>96</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>97</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>98</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>185</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>99</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>186</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>100</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>101</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>102</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>103</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>159</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>164</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>165</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>166</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>171</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>172</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>236</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>237</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>238</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>239</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>240</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>241</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>242</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>243</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>244</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>245</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>246</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>247</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>248</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>249</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>250</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>251</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>252</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>253</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>254</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>255</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>256</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>257</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>258</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>259</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>260</v>
       </c>
@@ -13653,7 +13653,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>261</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>262</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>263</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>264</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>265</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>266</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>267</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>268</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>269</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>270</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>271</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>272</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>273</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>274</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>275</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>276</v>
       </c>
@@ -14741,7 +14741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>277</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>278</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>279</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>280</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>281</v>
       </c>

--- a/src/defaultipa.xlsx
+++ b/src/defaultipa.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\accel\ProjectHome\phonetic-problem-generator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57914E49-D62D-4A7B-8CD5-E90DBEA1CEAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53B12CC6-A4A6-40F8-8ECF-C9D32648D7FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2B073AC-DFC3-D048-8692-BFCEF974FFF8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{A2B073AC-DFC3-D048-8692-BFCEF974FFF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1230,11 +1231,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580C24B1-92A6-954F-80C3-690B3863B6C1}">
   <dimension ref="A1:V227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:XFD129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
@@ -1260,7 +1261,7 @@
     <col min="22" max="22" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.5">
       <c r="G1" t="s">
         <v>71</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>211</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>212</v>
       </c>
@@ -2365,7 +2366,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -2637,7 +2638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>197</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>107</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>216</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>217</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>218</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>219</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -3725,7 +3726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3861,7 +3862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -4065,7 +4066,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>220</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>221</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>113</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>222</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>223</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>224</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -4813,7 +4814,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -4881,7 +4882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>123</v>
       </c>
@@ -5017,7 +5018,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>150</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>151</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -5289,7 +5290,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>154</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>155</v>
       </c>
@@ -5425,7 +5426,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -5493,7 +5494,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -5561,7 +5562,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>139</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -5697,7 +5698,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -5765,7 +5766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>142</v>
       </c>
@@ -5833,7 +5834,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>201</v>
       </c>
@@ -5901,7 +5902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>202</v>
       </c>
@@ -5969,7 +5970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>203</v>
       </c>
@@ -6037,7 +6038,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>204</v>
       </c>
@@ -6105,7 +6106,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>205</v>
       </c>
@@ -6173,7 +6174,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>206</v>
       </c>
@@ -6241,7 +6242,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>144</v>
       </c>
@@ -6377,7 +6378,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -6445,7 +6446,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>146</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -6581,7 +6582,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -6649,7 +6650,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -6717,7 +6718,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>233</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>234</v>
       </c>
@@ -6853,7 +6854,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>226</v>
       </c>
@@ -6921,7 +6922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>227</v>
       </c>
@@ -6989,7 +6990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>228</v>
       </c>
@@ -7057,7 +7058,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>229</v>
       </c>
@@ -7125,7 +7126,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>230</v>
       </c>
@@ -7193,7 +7194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>231</v>
       </c>
@@ -7261,7 +7262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>235</v>
       </c>
@@ -7329,7 +7330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>232</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>156</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>157</v>
       </c>
@@ -7533,7 +7534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -7601,7 +7602,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>84</v>
       </c>
@@ -7669,7 +7670,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>191</v>
       </c>
@@ -7737,7 +7738,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>188</v>
       </c>
@@ -7805,7 +7806,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>124</v>
       </c>
@@ -7873,7 +7874,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -7941,7 +7942,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -8009,7 +8010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
         <v>190</v>
       </c>
@@ -8077,7 +8078,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -8145,7 +8146,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>37</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -8281,7 +8282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -8349,7 +8350,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
         <v>133</v>
       </c>
@@ -8417,7 +8418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
         <v>134</v>
       </c>
@@ -8485,7 +8486,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
         <v>135</v>
       </c>
@@ -8553,7 +8554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -8621,7 +8622,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
         <v>81</v>
       </c>
@@ -8689,7 +8690,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
         <v>187</v>
       </c>
@@ -8757,7 +8758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
         <v>82</v>
       </c>
@@ -8825,7 +8826,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
         <v>86</v>
       </c>
@@ -8961,7 +8962,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -9029,7 +9030,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
         <v>88</v>
       </c>
@@ -9097,7 +9098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
         <v>184</v>
       </c>
@@ -9165,7 +9166,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -9233,7 +9234,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
         <v>168</v>
       </c>
@@ -9301,7 +9302,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
         <v>27</v>
       </c>
@@ -9369,7 +9370,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
         <v>93</v>
       </c>
@@ -9437,7 +9438,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
         <v>28</v>
       </c>
@@ -9505,7 +9506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
         <v>94</v>
       </c>
@@ -9573,7 +9574,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
         <v>95</v>
       </c>
@@ -9641,7 +9642,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
         <v>96</v>
       </c>
@@ -9709,7 +9710,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
         <v>97</v>
       </c>
@@ -9777,7 +9778,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
         <v>98</v>
       </c>
@@ -9845,7 +9846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
         <v>185</v>
       </c>
@@ -9913,7 +9914,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
         <v>99</v>
       </c>
@@ -9981,7 +9982,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
         <v>186</v>
       </c>
@@ -10049,7 +10050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
         <v>100</v>
       </c>
@@ -10117,7 +10118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
         <v>101</v>
       </c>
@@ -10185,7 +10186,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
         <v>102</v>
       </c>
@@ -10253,7 +10254,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
         <v>103</v>
       </c>
@@ -10321,7 +10322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
         <v>159</v>
       </c>
@@ -10389,7 +10390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -10457,7 +10458,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -10593,7 +10594,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -10661,7 +10662,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
         <v>164</v>
       </c>
@@ -10729,7 +10730,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
         <v>165</v>
       </c>
@@ -10797,7 +10798,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
         <v>166</v>
       </c>
@@ -10865,7 +10866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -10933,7 +10934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -11001,7 +11002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -11069,7 +11070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -11137,7 +11138,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -11205,7 +11206,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -11273,7 +11274,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -11341,7 +11342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -11409,7 +11410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -11477,7 +11478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -11545,7 +11546,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -11613,7 +11614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -11681,7 +11682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -11749,7 +11750,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -11817,7 +11818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A175" t="s">
         <v>171</v>
       </c>
@@ -11885,7 +11886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A176" t="s">
         <v>172</v>
       </c>
@@ -11953,7 +11954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A178" t="s">
         <v>236</v>
       </c>
@@ -12021,7 +12022,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A179" t="s">
         <v>237</v>
       </c>
@@ -12089,7 +12090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A180" t="s">
         <v>238</v>
       </c>
@@ -12157,7 +12158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A181" t="s">
         <v>239</v>
       </c>
@@ -12225,7 +12226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A182" t="s">
         <v>240</v>
       </c>
@@ -12293,7 +12294,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A183" t="s">
         <v>241</v>
       </c>
@@ -12361,7 +12362,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A184" t="s">
         <v>242</v>
       </c>
@@ -12429,7 +12430,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A185" t="s">
         <v>243</v>
       </c>
@@ -12497,7 +12498,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A186" t="s">
         <v>244</v>
       </c>
@@ -12565,7 +12566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A187" t="s">
         <v>245</v>
       </c>
@@ -12633,7 +12634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A188" t="s">
         <v>246</v>
       </c>
@@ -12701,7 +12702,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A190" t="s">
         <v>247</v>
       </c>
@@ -12769,7 +12770,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A191" t="s">
         <v>248</v>
       </c>
@@ -12837,7 +12838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A192" t="s">
         <v>249</v>
       </c>
@@ -12905,7 +12906,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A193" t="s">
         <v>250</v>
       </c>
@@ -12973,7 +12974,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A194" t="s">
         <v>251</v>
       </c>
@@ -13041,7 +13042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A195" t="s">
         <v>252</v>
       </c>
@@ -13109,7 +13110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A196" t="s">
         <v>253</v>
       </c>
@@ -13177,7 +13178,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A197" t="s">
         <v>254</v>
       </c>
@@ -13245,7 +13246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A198" t="s">
         <v>255</v>
       </c>
@@ -13313,7 +13314,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A199" t="s">
         <v>256</v>
       </c>
@@ -13381,7 +13382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A200" t="s">
         <v>257</v>
       </c>
@@ -13449,7 +13450,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A202" t="s">
         <v>258</v>
       </c>
@@ -13517,7 +13518,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A203" t="s">
         <v>259</v>
       </c>
@@ -13585,7 +13586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A204" t="s">
         <v>260</v>
       </c>
@@ -13653,7 +13654,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A205" t="s">
         <v>261</v>
       </c>
@@ -13721,7 +13722,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A206" t="s">
         <v>262</v>
       </c>
@@ -13789,7 +13790,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A207" t="s">
         <v>263</v>
       </c>
@@ -13857,7 +13858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A208" t="s">
         <v>264</v>
       </c>
@@ -13925,7 +13926,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A209" t="s">
         <v>265</v>
       </c>
@@ -13993,7 +13994,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A210" t="s">
         <v>266</v>
       </c>
@@ -14061,7 +14062,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A212" t="s">
         <v>267</v>
       </c>
@@ -14129,7 +14130,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A213" t="s">
         <v>268</v>
       </c>
@@ -14197,7 +14198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A214" t="s">
         <v>269</v>
       </c>
@@ -14265,7 +14266,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A215" t="s">
         <v>270</v>
       </c>
@@ -14333,7 +14334,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A216" t="s">
         <v>271</v>
       </c>
@@ -14401,7 +14402,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A217" t="s">
         <v>272</v>
       </c>
@@ -14469,7 +14470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A218" t="s">
         <v>273</v>
       </c>
@@ -14537,7 +14538,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A219" t="s">
         <v>274</v>
       </c>
@@ -14605,7 +14606,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A220" t="s">
         <v>275</v>
       </c>
@@ -14673,7 +14674,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A222" t="s">
         <v>276</v>
       </c>
@@ -14741,7 +14742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A223" t="s">
         <v>277</v>
       </c>
@@ -14809,7 +14810,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A224" t="s">
         <v>278</v>
       </c>
@@ -14877,7 +14878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A225" t="s">
         <v>279</v>
       </c>
@@ -14945,7 +14946,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A226" t="s">
         <v>280</v>
       </c>
@@ -15013,7 +15014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A227" t="s">
         <v>281</v>
       </c>
